--- a/sheets/characters.xlsx
+++ b/sheets/characters.xlsx
@@ -982,6 +982,9 @@
     <t>Either Endo's got a smudge on his nose, or the call of the divine has turned his gaze within.</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>23284a26-99bb-4197-9091-b23f703515d9</t>
   </si>
   <si>
@@ -1204,1609 +1207,1606 @@
     <t>cozy</t>
   </si>
   <si>
+    <t>liquid_courage</t>
+  </si>
+  <si>
+    <t>d18e5b49-45a2-4561-aaae-37338243c36d</t>
+  </si>
+  <si>
+    <t>Fyrdinan</t>
+  </si>
+  <si>
+    <t>Shroke aren't usually drawn to bureaucracy but then, who is?</t>
+  </si>
+  <si>
+    <t>9afb3e3a-ddc1-42fe-9a09-8bae30643b87</t>
+  </si>
+  <si>
+    <t>Galth</t>
+  </si>
+  <si>
+    <t>Promoted Rebel</t>
+  </si>
+  <si>
+    <t>Galth's swallowed enough dirt to feel at one with the land, and he moves through it like an eel in swamp sludge.</t>
+  </si>
+  <si>
+    <t>guerrilla_tactic_plus</t>
+  </si>
+  <si>
+    <t>0c3d59ca-25c6-4b83-9980-0670b473459b</t>
+  </si>
+  <si>
+    <t>Gao</t>
+  </si>
+  <si>
+    <t>Gao has one of those faces you love to hate. Or hate to love? It's interchangeable, really.</t>
+  </si>
+  <si>
+    <t>a7936cc7-fa9d-4e3d-9c17-94eed8f19274</t>
+  </si>
+  <si>
+    <t>Gen</t>
+  </si>
+  <si>
+    <t>Folks say Gen has been seen talking to revolutionary types, but how would anyone know? It's not like they wear a uniform.</t>
+  </si>
+  <si>
+    <t>ed2f9063-6599-4cdc-8d86-dec98f7ba6a5</t>
+  </si>
+  <si>
+    <t>Genner</t>
+  </si>
+  <si>
+    <t>Genner has a way of commanding silence when he speaks.</t>
+  </si>
+  <si>
+    <t>3ef79b71-ba46-4ae1-b41e-9956b2065158</t>
+  </si>
+  <si>
+    <t>Gheckt</t>
+  </si>
+  <si>
+    <t>Investigator</t>
+  </si>
+  <si>
+    <t>Few Admiralty have seen as much hardship as Gheckt, and that's not just because she has a name that sounds like a hairball.</t>
+  </si>
+  <si>
+    <t>informant</t>
+  </si>
+  <si>
+    <t>watched</t>
+  </si>
+  <si>
+    <t>classified_file</t>
+  </si>
+  <si>
+    <t>8e92daeb-b0d1-481c-8be3-b765da83299c</t>
+  </si>
+  <si>
+    <t>Glick</t>
+  </si>
+  <si>
+    <t>ca6f7903-6e1a-45ca-9710-d732e975c4fa</t>
+  </si>
+  <si>
+    <t>Glofriam</t>
+  </si>
+  <si>
+    <t>High Priest</t>
+  </si>
+  <si>
+    <t>d0b0922d-676f-4dc1-9197-46886dfcc96a</t>
+  </si>
+  <si>
+    <t>Gnak</t>
+  </si>
+  <si>
+    <t>There are few jobs that Gnak can't pull off with a little practice. Must be nominative determinism.</t>
+  </si>
+  <si>
+    <t>5ab12917-a659-455c-8df6-b2843caa05d7</t>
+  </si>
+  <si>
+    <t>Gode</t>
+  </si>
+  <si>
+    <t>Like most foremen, Gode prefers folks who can get the job done.</t>
+  </si>
+  <si>
+    <t>770a00c5-423e-4566-a98f-1f46fcadaea9</t>
+  </si>
+  <si>
+    <t>Goni</t>
+  </si>
+  <si>
+    <t>If you had to get robbed, it wouldn't be too bad to get robbed by a face like Goni's.</t>
+  </si>
+  <si>
+    <t>c2d248a1-7131-4cca-afb2-3501ffc2d35b</t>
+  </si>
+  <si>
+    <t>Gorgula</t>
+  </si>
+  <si>
+    <t>Rogue Zealot</t>
+  </si>
+  <si>
+    <t>If Hesh has a will, it probably works through Gorgula.</t>
+  </si>
+  <si>
+    <t>heshian_armature</t>
+  </si>
+  <si>
+    <t>gremlins</t>
+  </si>
+  <si>
+    <t>lumin_generator</t>
+  </si>
+  <si>
+    <t>508c8887-bf84-4820-957b-26d10e409705</t>
+  </si>
+  <si>
+    <t>Gree</t>
+  </si>
+  <si>
+    <t>Creepily enough, Gree has a reputation for singing her assassin contracts to their death.</t>
+  </si>
+  <si>
+    <t>6085190a-26bf-4711-a9e6-bd30c7d05b99</t>
+  </si>
+  <si>
+    <t>Grex</t>
+  </si>
+  <si>
+    <t>It's easy to feel sorry for someone with a face like Grex's. At least, Grex thinks it should be.</t>
+  </si>
+  <si>
+    <t>2bd9f006-0293-4671-b657-71dd5bf94cbb</t>
+  </si>
+  <si>
+    <t>Grim</t>
+  </si>
+  <si>
+    <t>Sampler</t>
+  </si>
+  <si>
+    <t>BILEBROKERS</t>
+  </si>
+  <si>
+    <t>doze_bug</t>
+  </si>
+  <si>
+    <t>spiked_drink</t>
+  </si>
+  <si>
+    <t>vapor_vial</t>
+  </si>
+  <si>
+    <t>6f02694e-e191-4a5e-94d6-b5cffd47e92c</t>
+  </si>
+  <si>
+    <t>Grimdellia</t>
+  </si>
+  <si>
+    <t>Bogger</t>
+  </si>
+  <si>
+    <t>Grimdellia was the name of a kra'deshi war queen, but you suspect this Grimdellia doesn't much care for ancient history.</t>
+  </si>
+  <si>
+    <t>talisman</t>
+  </si>
+  <si>
+    <t>bogling</t>
+  </si>
+  <si>
+    <t>seedling</t>
+  </si>
+  <si>
+    <t>0e2fe071-fea1-43b0-a575-ca319dab5793</t>
+  </si>
+  <si>
+    <t>Grout Monster</t>
+  </si>
+  <si>
+    <t>Grumph</t>
+  </si>
+  <si>
+    <t>Oshnu Wrangler</t>
+  </si>
+  <si>
+    <t>Oshnu slime has a way of getting into everything, and Grumph talks like his throat is clogged with it.</t>
+  </si>
+  <si>
+    <t>adhesive</t>
+  </si>
+  <si>
+    <t>bad_bookie</t>
+  </si>
+  <si>
+    <t>a_hot_tip</t>
+  </si>
+  <si>
+    <t>99c975dc-3587-4373-a777-a8395b2dfa08</t>
+  </si>
+  <si>
+    <t>Grunjax</t>
+  </si>
+  <si>
+    <t>Grunjax has breath so rancid you can smell it after he's left the room. But he sure does have a nice smile.</t>
+  </si>
+  <si>
+    <t>e314a2e6-31f4-464d-b05c-af63ffb50e35</t>
+  </si>
+  <si>
+    <t>Gumthow</t>
+  </si>
+  <si>
+    <t>Poor Merchant</t>
+  </si>
+  <si>
+    <t>If Gumthow had a shill for every time she's been stiffed on a deal, she'd be able to retire.</t>
+  </si>
+  <si>
+    <t>defective_grenade</t>
+  </si>
+  <si>
+    <t>ed48596c-22a0-4633-8352-3fea5f48dd84</t>
+  </si>
+  <si>
+    <t>Gura</t>
+  </si>
+  <si>
+    <t>If the strain in his brow is anything to go by, Gura might be open to a new line of work.</t>
+  </si>
+  <si>
+    <t>d823ff18-9069-464a-9a24-5386907e7266</t>
+  </si>
+  <si>
+    <t>Gwale</t>
+  </si>
+  <si>
+    <t>Gwale wasn't born to this life, but she sure claimed it as her own anyway.</t>
+  </si>
+  <si>
+    <t>094bf906-ac1a-4ed4-8095-10c2c263b090</t>
+  </si>
+  <si>
+    <t>Hamund</t>
+  </si>
+  <si>
+    <t>Radical</t>
+  </si>
+  <si>
+    <t>Hamund has never seen the bright side, if only because the bright side stays out of sight.</t>
+  </si>
+  <si>
+    <t>war_machine</t>
+  </si>
+  <si>
+    <t>depleted</t>
+  </si>
+  <si>
+    <t>rpg</t>
+  </si>
+  <si>
+    <t>16f6a729-0e16-49a2-9468-35319b4bf4ce</t>
+  </si>
+  <si>
+    <t>Hanbi</t>
+  </si>
+  <si>
+    <t>Assassin</t>
+  </si>
+  <si>
+    <t>Hanbi's rifle has been the bitter end of more than a few hunters in the griftlands.</t>
+  </si>
+  <si>
+    <t>steady_hands</t>
+  </si>
+  <si>
+    <t>fumbling_fingers</t>
+  </si>
+  <si>
+    <t>hanbis_power_supply</t>
+  </si>
+  <si>
+    <t>PHICKET</t>
+  </si>
+  <si>
+    <t>1c78c164-ec87-45da-b762-00cffc40ff07</t>
+  </si>
+  <si>
+    <t>Hebbel</t>
+  </si>
+  <si>
+    <t>Rest assured: you make a mess in his bar, and there'll be Hebbel to pay.</t>
+  </si>
+  <si>
+    <t>60f23d4e-9afc-4670-998a-3f5cf8ea182f</t>
+  </si>
+  <si>
+    <t>Heft</t>
+  </si>
+  <si>
+    <t>Heft might be intimidating if she didn't have a habit of chewing her nails to the quick.</t>
+  </si>
+  <si>
+    <t>f16d05eb-4e13-47b7-819d-6b5a130f3491</t>
+  </si>
+  <si>
+    <t>Heleet</t>
+  </si>
+  <si>
+    <t>It's hard to believe Heleet has a reputation for being a bit of a Casanova, but then you always were immune to such charms.</t>
+  </si>
+  <si>
+    <t>444c2494-38d1-44fc-aa1f-2621f6d9154b</t>
+  </si>
+  <si>
+    <t>Henders</t>
+  </si>
+  <si>
+    <t>Luminitiate</t>
+  </si>
+  <si>
+    <t>Henders used to stick his head beneath the water in the hopes of getting a look at Hesh. The constant lack of oxygen might've had an effect.</t>
+  </si>
+  <si>
+    <t>5349c1a6-bbfd-44d0-a6b2-cb6f39549b6b</t>
+  </si>
+  <si>
+    <t>Hiqu</t>
+  </si>
+  <si>
+    <t>Hiqu's mysterious poetry has been found scribbled in privies from Murder Bay to the Bread Fields.</t>
+  </si>
+  <si>
+    <t>a972959f-3f58-4911-82b5-c50387c2af3a</t>
+  </si>
+  <si>
+    <t>Hrikit</t>
+  </si>
+  <si>
+    <t>Hrikit's name has the rough edges of the Rentorian dialect, but there's no hint of an accent when she barks.</t>
+  </si>
+  <si>
+    <t>9e7a107f-af9a-4099-9d44-643034a10a0c</t>
+  </si>
+  <si>
+    <t>Hundruthor</t>
+  </si>
+  <si>
+    <t>Auctioneer</t>
+  </si>
+  <si>
+    <t>Hundruthor knows the value of his time, and he's not sure you're worth it.</t>
+  </si>
+  <si>
+    <t>f8060135-6140-471c-b509-541cbf05d5fc</t>
+  </si>
+  <si>
+    <t>Idri</t>
+  </si>
+  <si>
+    <t>Where trouble goes, Idri follows, always on the lookout for opportunity.</t>
+  </si>
+  <si>
+    <t>32a1febb-d8a7-4875-8bb2-d07bed4dedc6</t>
+  </si>
+  <si>
+    <t>Iggory</t>
+  </si>
+  <si>
+    <t>You can tell Iggory approaches by the florid waft emanating from his coat: the work of a pocket perfumer.</t>
+  </si>
+  <si>
+    <t>348b9e8a-2921-489d-a6ea-e439af31b59a</t>
+  </si>
+  <si>
+    <t>Imiko</t>
+  </si>
+  <si>
+    <t>Laborers say Imiko is tough but fair—or was that tough but beware?</t>
+  </si>
+  <si>
+    <t>cc570c2c-a054-4296-9af2-e787611cd46a</t>
+  </si>
+  <si>
+    <t>Ionis</t>
+  </si>
+  <si>
+    <t>Luminari</t>
+  </si>
+  <si>
+    <t>Few folks survive the rigorous training needed to become Luminari. Ionis wears it like a halo of sunshine.</t>
+  </si>
+  <si>
+    <t>bell_of_hesh</t>
+  </si>
+  <si>
+    <t>curse_of_hesh</t>
+  </si>
+  <si>
+    <t>heshian_mask</t>
+  </si>
+  <si>
+    <t>96f130ca-64ec-4c6f-bfb9-4bb6a7b4ab19</t>
+  </si>
+  <si>
+    <t>Irkrow</t>
+  </si>
+  <si>
+    <t>A good bartender knows how to mix a drink. The better bartenders know how to fix a fight. Irkrow does both.</t>
+  </si>
+  <si>
+    <t>mixology</t>
+  </si>
+  <si>
     <t>tainted_supply</t>
   </si>
   <si>
-    <t>liquid_courage</t>
-  </si>
-  <si>
-    <t>d18e5b49-45a2-4561-aaae-37338243c36d</t>
-  </si>
-  <si>
-    <t>Fyrdinan</t>
-  </si>
-  <si>
-    <t>Shroke aren't usually drawn to bureaucracy but then, who is?</t>
-  </si>
-  <si>
-    <t>9afb3e3a-ddc1-42fe-9a09-8bae30643b87</t>
-  </si>
-  <si>
-    <t>Galth</t>
-  </si>
-  <si>
-    <t>Promoted Rebel</t>
-  </si>
-  <si>
-    <t>Galth's swallowed enough dirt to feel at one with the land, and he moves through it like an eel in swamp sludge.</t>
-  </si>
-  <si>
-    <t>guerrilla_tactic_plus</t>
-  </si>
-  <si>
-    <t>0c3d59ca-25c6-4b83-9980-0670b473459b</t>
-  </si>
-  <si>
-    <t>Gao</t>
-  </si>
-  <si>
-    <t>Gao has one of those faces you love to hate. Or hate to love? It's interchangeable, really.</t>
-  </si>
-  <si>
-    <t>a7936cc7-fa9d-4e3d-9c17-94eed8f19274</t>
-  </si>
-  <si>
-    <t>Gen</t>
-  </si>
-  <si>
-    <t>Folks say Gen has been seen talking to revolutionary types, but how would anyone know? It's not like they wear a uniform.</t>
-  </si>
-  <si>
-    <t>ed2f9063-6599-4cdc-8d86-dec98f7ba6a5</t>
-  </si>
-  <si>
-    <t>Genner</t>
-  </si>
-  <si>
-    <t>Genner has a way of commanding silence when he speaks.</t>
-  </si>
-  <si>
-    <t>3ef79b71-ba46-4ae1-b41e-9956b2065158</t>
-  </si>
-  <si>
-    <t>Gheckt</t>
-  </si>
-  <si>
-    <t>Investigator</t>
-  </si>
-  <si>
-    <t>Few Admiralty have seen as much hardship as Gheckt, and that's not just because she has a name that sounds like a hairball.</t>
-  </si>
-  <si>
-    <t>informant</t>
-  </si>
-  <si>
-    <t>watched</t>
-  </si>
-  <si>
-    <t>classified_file</t>
-  </si>
-  <si>
-    <t>8e92daeb-b0d1-481c-8be3-b765da83299c</t>
-  </si>
-  <si>
-    <t>Glick</t>
-  </si>
-  <si>
-    <t>ca6f7903-6e1a-45ca-9710-d732e975c4fa</t>
-  </si>
-  <si>
-    <t>Glofriam</t>
-  </si>
-  <si>
-    <t>High Priest</t>
-  </si>
-  <si>
-    <t>d0b0922d-676f-4dc1-9197-46886dfcc96a</t>
-  </si>
-  <si>
-    <t>Gnak</t>
-  </si>
-  <si>
-    <t>There are few jobs that Gnak can't pull off with a little practice. Must be nominative determinism.</t>
-  </si>
-  <si>
-    <t>5ab12917-a659-455c-8df6-b2843caa05d7</t>
-  </si>
-  <si>
-    <t>Gode</t>
-  </si>
-  <si>
-    <t>Like most foremen, Gode prefers folks who can get the job done.</t>
-  </si>
-  <si>
-    <t>770a00c5-423e-4566-a98f-1f46fcadaea9</t>
-  </si>
-  <si>
-    <t>Goni</t>
-  </si>
-  <si>
-    <t>If you had to get robbed, it wouldn't be too bad to get robbed by a face like Goni's.</t>
-  </si>
-  <si>
-    <t>c2d248a1-7131-4cca-afb2-3501ffc2d35b</t>
-  </si>
-  <si>
-    <t>Gorgula</t>
-  </si>
-  <si>
-    <t>Rogue Zealot</t>
-  </si>
-  <si>
-    <t>If Hesh has a will, it probably works through Gorgula.</t>
-  </si>
-  <si>
-    <t>heshian_armature</t>
-  </si>
-  <si>
-    <t>gremlins</t>
-  </si>
-  <si>
-    <t>lumin_generator</t>
-  </si>
-  <si>
-    <t>508c8887-bf84-4820-957b-26d10e409705</t>
-  </si>
-  <si>
-    <t>Gree</t>
-  </si>
-  <si>
-    <t>Creepily enough, Gree has a reputation for singing her assassin contracts to their death.</t>
-  </si>
-  <si>
-    <t>6085190a-26bf-4711-a9e6-bd30c7d05b99</t>
-  </si>
-  <si>
-    <t>Grex</t>
-  </si>
-  <si>
-    <t>It's easy to feel sorry for someone with a face like Grex's. At least, Grex thinks it should be.</t>
-  </si>
-  <si>
-    <t>2bd9f006-0293-4671-b657-71dd5bf94cbb</t>
-  </si>
-  <si>
-    <t>Grim</t>
-  </si>
-  <si>
-    <t>Sampler</t>
-  </si>
-  <si>
-    <t>BILEBROKERS</t>
-  </si>
-  <si>
-    <t>doze_bug</t>
-  </si>
-  <si>
-    <t>spiked_drink</t>
-  </si>
-  <si>
-    <t>vapor_vial</t>
-  </si>
-  <si>
-    <t>6f02694e-e191-4a5e-94d6-b5cffd47e92c</t>
-  </si>
-  <si>
-    <t>Grimdellia</t>
-  </si>
-  <si>
-    <t>Bogger</t>
-  </si>
-  <si>
-    <t>Grimdellia was the name of a kra'deshi war queen, but you suspect this Grimdellia doesn't much care for ancient history.</t>
-  </si>
-  <si>
-    <t>talisman</t>
-  </si>
-  <si>
-    <t>bogling</t>
-  </si>
-  <si>
-    <t>seedling</t>
-  </si>
-  <si>
-    <t>0e2fe071-fea1-43b0-a575-ca319dab5793</t>
-  </si>
-  <si>
-    <t>Grout Monster</t>
-  </si>
-  <si>
-    <t>Grumph</t>
-  </si>
-  <si>
-    <t>Oshnu Wrangler</t>
-  </si>
-  <si>
-    <t>Oshnu slime has a way of getting into everything, and Grumph talks like his throat is clogged with it.</t>
-  </si>
-  <si>
-    <t>adhesive</t>
-  </si>
-  <si>
-    <t>bad_bookie</t>
-  </si>
-  <si>
-    <t>a_hot_tip</t>
-  </si>
-  <si>
-    <t>99c975dc-3587-4373-a777-a8395b2dfa08</t>
-  </si>
-  <si>
-    <t>Grunjax</t>
-  </si>
-  <si>
-    <t>Grunjax has breath so rancid you can smell it after he's left the room. But he sure does have a nice smile.</t>
-  </si>
-  <si>
-    <t>e314a2e6-31f4-464d-b05c-af63ffb50e35</t>
-  </si>
-  <si>
-    <t>Gumthow</t>
-  </si>
-  <si>
-    <t>Poor Merchant</t>
-  </si>
-  <si>
-    <t>If Gumthow had a shill for every time she's been stiffed on a deal, she'd be able to retire.</t>
-  </si>
-  <si>
-    <t>defective_grenade</t>
-  </si>
-  <si>
-    <t>ed48596c-22a0-4633-8352-3fea5f48dd84</t>
-  </si>
-  <si>
-    <t>Gura</t>
-  </si>
-  <si>
-    <t>If the strain in his brow is anything to go by, Gura might be open to a new line of work.</t>
-  </si>
-  <si>
-    <t>d823ff18-9069-464a-9a24-5386907e7266</t>
-  </si>
-  <si>
-    <t>Gwale</t>
-  </si>
-  <si>
-    <t>Gwale wasn't born to this life, but she sure claimed it as her own anyway.</t>
-  </si>
-  <si>
-    <t>094bf906-ac1a-4ed4-8095-10c2c263b090</t>
-  </si>
-  <si>
-    <t>Hamund</t>
-  </si>
-  <si>
-    <t>Radical</t>
-  </si>
-  <si>
-    <t>Hamund has never seen the bright side, if only because the bright side stays out of sight.</t>
-  </si>
-  <si>
-    <t>war_machine</t>
-  </si>
-  <si>
-    <t>depleted</t>
-  </si>
-  <si>
-    <t>rpg</t>
-  </si>
-  <si>
-    <t>16f6a729-0e16-49a2-9468-35319b4bf4ce</t>
-  </si>
-  <si>
-    <t>Hanbi</t>
-  </si>
-  <si>
-    <t>Assassin</t>
-  </si>
-  <si>
-    <t>Hanbi's rifle has been the bitter end of more than a few hunters in the griftlands.</t>
-  </si>
-  <si>
-    <t>steady_hands</t>
-  </si>
-  <si>
-    <t>fumbling_fingers</t>
-  </si>
-  <si>
-    <t>hanbis_power_supply</t>
-  </si>
-  <si>
-    <t>PHICKET</t>
-  </si>
-  <si>
-    <t>1c78c164-ec87-45da-b762-00cffc40ff07</t>
-  </si>
-  <si>
-    <t>Hebbel</t>
-  </si>
-  <si>
-    <t>Rest assured: you make a mess in his bar, and there'll be Hebbel to pay.</t>
+    <t>4b36014f-dc5f-40ba-b3eb-6e727f9ed755</t>
+  </si>
+  <si>
+    <t>Jand</t>
+  </si>
+  <si>
+    <t>It takes a mean life to put that mean look in Jand's eye.</t>
+  </si>
+  <si>
+    <t>491d8952-5197-4521-88e0-b6cac18d02e9</t>
+  </si>
+  <si>
+    <t>Jani</t>
+  </si>
+  <si>
+    <t>Where Jani goes, others follow. It's best to watch her closely.</t>
+  </si>
+  <si>
+    <t>05a63db8-3f94-40ac-88e3-18ee2c879140</t>
+  </si>
+  <si>
+    <t>Jeetee</t>
+  </si>
+  <si>
+    <t>Word is Jeetee's a good boss, but in Havaria that doesn't necessarily mean she's a fair one.</t>
+  </si>
+  <si>
+    <t>525a4014-7a4c-49c7-82fa-53b1b59de913</t>
+  </si>
+  <si>
+    <t>Jeol</t>
+  </si>
+  <si>
+    <t>Drone Master</t>
+  </si>
+  <si>
+    <t>Jeol's blank gaze is a little unnerving, but you've cracked harder heads.</t>
+  </si>
+  <si>
+    <t>drone_mastery</t>
+  </si>
+  <si>
+    <t>drone_supplier</t>
+  </si>
+  <si>
+    <t>prototype_drone</t>
+  </si>
+  <si>
+    <t>6ab9ae20-eead-4049-bdca-53d7efa803ef</t>
+  </si>
+  <si>
+    <t>Juke</t>
+  </si>
+  <si>
+    <t>Juke's a bit of a newcomer on the Havarian smuggling scene, but she makes up for it by charging a ruthless fee.</t>
+  </si>
+  <si>
+    <t>354404ef-b560-4fe1-86e5-dde04f7fc1f8</t>
+  </si>
+  <si>
+    <t>Jurna</t>
+  </si>
+  <si>
+    <t>Some folks love their beasts, and other folks just smell like them.</t>
+  </si>
+  <si>
+    <t>41d64a7e-508c-488f-a0a5-a064a2ad481f</t>
+  </si>
+  <si>
+    <t>Justice</t>
+  </si>
+  <si>
+    <t>As her name suggests, Justice is firm, ruthless, and has very little sense of irony.</t>
+  </si>
+  <si>
+    <t>aee58920-e2d5-4c6d-8c83-42ef23034015</t>
+  </si>
+  <si>
+    <t>Kallo</t>
+  </si>
+  <si>
+    <t>Kallo grew up with a thirst for lumin wine and a tendency to chew with her mouth open.</t>
+  </si>
+  <si>
+    <t>a7bd78cc-582a-466b-86e2-e6a33cef9c6a</t>
+  </si>
+  <si>
+    <t>Karet</t>
+  </si>
+  <si>
+    <t>Promoted Security Guard</t>
+  </si>
+  <si>
+    <t>A steely gaze can't distract from the twitch of Karet's fingers, like he's dissecting a piece of Vagrant tech in his head.</t>
+  </si>
+  <si>
+    <t>weapons_supplier</t>
+  </si>
+  <si>
+    <t>sketchy_equipment</t>
+  </si>
+  <si>
+    <t>shock_core_plus</t>
+  </si>
+  <si>
+    <t>18009d9c-d1bf-42a7-9343-b38921ab2c9c</t>
+  </si>
+  <si>
+    <t>Kashio</t>
+  </si>
+  <si>
+    <t>Freelancer</t>
+  </si>
+  <si>
+    <t>The biggest debt-broker in Murder Bay, Kashio was once an indentured laborer who earned herself a reputation as a self-made kingpin.</t>
+  </si>
+  <si>
+    <t>troubled_past</t>
+  </si>
+  <si>
+    <t>c095c17d-98ac-463c-b70f-5eedae4a5fc3</t>
+  </si>
+  <si>
+    <t>Keebee</t>
+  </si>
+  <si>
+    <t>Where most Spark Barons seek profit, Keebee seeks opportunities.</t>
+  </si>
+  <si>
+    <t>b6a3425a-f184-4524-afdb-063be16c55da</t>
+  </si>
+  <si>
+    <t>Kel</t>
+  </si>
+  <si>
+    <t>Got a problem with the Spree? To Kel with it.</t>
+  </si>
+  <si>
+    <t>26148c69-8ae6-46ae-8a18-5439a6d4e634</t>
+  </si>
+  <si>
+    <t>Kenga</t>
+  </si>
+  <si>
+    <t>Kenga's never received a shill she hasn't scrutinized for authenticity.</t>
+  </si>
+  <si>
+    <t>ec369442-6d53-4495-aa47-97a25a935182</t>
+  </si>
+  <si>
+    <t>Kheven</t>
+  </si>
+  <si>
+    <t>Security Guard</t>
+  </si>
+  <si>
+    <t>Kheven doesn't seem to look entirely certain about his place in the world, but he's clearly hoping to make the best of it.</t>
+  </si>
+  <si>
+    <t>shock_core</t>
+  </si>
+  <si>
+    <t>1a003e71-e581-49a3-8387-f463ae4771a4</t>
+  </si>
+  <si>
+    <t>Kilka</t>
+  </si>
+  <si>
+    <t>Kilka has the look of someone who was promised a better hand than the one she got. She suspects someone cheated.</t>
+  </si>
+  <si>
+    <t>1e70d47f-b0f3-4b46-be73-e6e63e1669b3</t>
+  </si>
+  <si>
+    <t>Kof</t>
+  </si>
+  <si>
+    <t>This smuggler has a reputation for negotiating steep fees for his services. Perhaps the origin of the Havarian phrase "coughing up the cash".</t>
+  </si>
+  <si>
+    <t>1156acd1-23cb-4e69-871d-46c999cc8a22</t>
+  </si>
+  <si>
+    <t>Koqy</t>
+  </si>
+  <si>
+    <t>The Heshians say good food brings you closer to the divine. Koqy could be a priest.</t>
+  </si>
+  <si>
+    <t>3771afbb-fe1d-4b01-bc7f-59342b27c6f6</t>
+  </si>
+  <si>
+    <t>Krikith</t>
+  </si>
+  <si>
+    <t>Cultivator</t>
+  </si>
+  <si>
+    <t>You're not sure what came first: Krikith, or the sound of his name chirping from the bog.</t>
+  </si>
+  <si>
+    <t>inoculated</t>
+  </si>
+  <si>
+    <t>bog_sensitive</t>
+  </si>
+  <si>
+    <t>bog_scimitar</t>
+  </si>
+  <si>
+    <t>34e75900-41d9-42d1-8c1d-13f39df50718</t>
+  </si>
+  <si>
+    <t>Krog</t>
+  </si>
+  <si>
+    <t>You'd bet your last shill that Krog knows his way around his own sleeve—preferably, though, you wouldn't bet against Krog.</t>
+  </si>
+  <si>
+    <t>754b5bfb-a24c-4803-b80b-397eefaf8717</t>
+  </si>
+  <si>
+    <t>Kuga</t>
+  </si>
+  <si>
+    <t>Rather than a bad side, Kuga seems to have a bad continent. Best to stay off it.</t>
+  </si>
+  <si>
+    <t>43d1336b-e04c-4fef-a036-1e8400f34fcf</t>
+  </si>
+  <si>
+    <t>Kyrgian</t>
+  </si>
+  <si>
+    <t>Kra'deshi who find themselves in Kyrgian's position are typically orphans, runaways, or both.</t>
+  </si>
+  <si>
+    <t>2bb69eaf-8b9e-48cb-a1fd-d2f2d1fe1ea8</t>
+  </si>
+  <si>
+    <t>Lasquo</t>
+  </si>
+  <si>
+    <t>As with most Admiralty, Lasquo is only hard on crime that doesn't pay.</t>
+  </si>
+  <si>
+    <t>54c3a8f4-5511-4bed-bea1-4d7ec7f81752</t>
+  </si>
+  <si>
+    <t>Leeqi</t>
+  </si>
+  <si>
+    <t>Word is Leeqi makes money on the side stooging for debt-brokers and keeping the derricks well-stocked with labor.</t>
+  </si>
+  <si>
+    <t>c8f7d735-ebd5-4482-a48d-3244944395e5</t>
+  </si>
+  <si>
+    <t>Leesha</t>
+  </si>
+  <si>
+    <t>Chemist</t>
+  </si>
+  <si>
+    <t>It's unclear whether Leesha's easygoing attitude is a result of her temperament, or the fumes radiating off her wares.</t>
+  </si>
+  <si>
+    <t>af48dcab-a73f-4e75-b6d0-ca80113c5a03</t>
+  </si>
+  <si>
+    <t>Lellyn Fellemo</t>
+  </si>
+  <si>
+    <t>Regional Manager</t>
+  </si>
+  <si>
+    <t>Fellemo's old grit has been softened somewhat by his new trappings.</t>
+  </si>
+  <si>
+    <t>scheme</t>
+  </si>
+  <si>
+    <t>scandal</t>
+  </si>
+  <si>
+    <t>two_faced</t>
+  </si>
+  <si>
+    <t>d0f2573b-e294-431f-9760-cdd5dbdf3e99</t>
+  </si>
+  <si>
+    <t>Lili</t>
+  </si>
+  <si>
+    <t>Word is, Lili would sell his own grandmother if he thought he could buy her back at half price next week.</t>
+  </si>
+  <si>
+    <t>edbe4545-a328-444a-a598-beb3dfbf9ffa</t>
+  </si>
+  <si>
+    <t>Llullably</t>
+  </si>
+  <si>
+    <t>Llullably is rumored to have a voice as sweet as clover, but the Heshian chants reduce it to a watery gurgle.</t>
+  </si>
+  <si>
+    <t>dd7eadfc-a9f3-4b62-8cd8-8d55593f86ea</t>
+  </si>
+  <si>
+    <t>Lopli</t>
+  </si>
+  <si>
+    <t>Lopli rose to notoriety with her invention of a self-swindler, a wallet so secure even Lopli can't open it.</t>
+  </si>
+  <si>
+    <t>ca589efe-105c-4af6-9204-7b5bc8eb0305</t>
+  </si>
+  <si>
+    <t>Lumika</t>
+  </si>
+  <si>
+    <t>Lumika might not only have grown up with the silver spoon, but swallowed it whole.</t>
+  </si>
+  <si>
+    <t>14a25063-9102-47b3-8c79-687a7ca55595</t>
+  </si>
+  <si>
+    <t>Lux</t>
+  </si>
+  <si>
+    <t>The only thing more menacing than Lux's reputation is her laugh.</t>
+  </si>
+  <si>
+    <t>95cf259e-8d1e-42fd-a228-86ce04ffb8aa</t>
+  </si>
+  <si>
+    <t>Mainewi</t>
+  </si>
+  <si>
+    <t>Promoted Laborer</t>
+  </si>
+  <si>
+    <t>Mainewi was raised to believe hard work would be rewarded. You're impressed he hasn't had a crisis of faith.</t>
+  </si>
+  <si>
+    <t>anchor_plus</t>
+  </si>
+  <si>
+    <t>5a5d8766-0ae5-4132-998a-8b16b1923027</t>
+  </si>
+  <si>
+    <t>Mallowi</t>
+  </si>
+  <si>
+    <t>All Luminari are a bit stuck-up, but Mallowi's got sermons on the brain and a pike up his abyss.</t>
+  </si>
+  <si>
+    <t>8750d49e-130b-4aed-9248-c8370db9c1c6</t>
+  </si>
+  <si>
+    <t>Malo</t>
+  </si>
+  <si>
+    <t>Word is, Malo used to be a foreman himself, before fortune and health conspired against him.</t>
+  </si>
+  <si>
+    <t>c893f0bc-2716-4c8b-8abb-a42381c65f51</t>
+  </si>
+  <si>
+    <t>Mark Nine Nine</t>
+  </si>
+  <si>
+    <t>Defensive Program</t>
+  </si>
+  <si>
+    <t>predictive_blast</t>
+  </si>
+  <si>
+    <t>403c8d49-8718-4bc7-97c5-c7d3f023abec</t>
+  </si>
+  <si>
+    <t>Melba</t>
+  </si>
+  <si>
+    <t>Don't mess with Melba, or you'll be toast.</t>
+  </si>
+  <si>
+    <t>63b8eb0d-58ec-4328-8e68-51dec647dfd4</t>
+  </si>
+  <si>
+    <t>Milleeree</t>
+  </si>
+  <si>
+    <t>In true Havarian fashion, Milleeree's promoted status seems to have been prompted by something other than her lackluster work ethic.</t>
+  </si>
+  <si>
+    <t>59b79603-7525-4941-b390-ea13017030ff</t>
+  </si>
+  <si>
+    <t>Minfen</t>
+  </si>
+  <si>
+    <t>You've heard Minfen used to be an indebted worker. Most aren't lucky enough to make it out.</t>
+  </si>
+  <si>
+    <t>ef585e8a-e238-47c6-9fc0-7d437d278327</t>
+  </si>
+  <si>
+    <t>Monid</t>
+  </si>
+  <si>
+    <t>Monid supposedly knows the entire Heshian tract by heart, but since she's the only one that does you'll just have to take her word for it.</t>
+  </si>
+  <si>
+    <t>0bdaf6f8-537b-4eca-ad82-b186f5e745a2</t>
+  </si>
+  <si>
+    <t>Mullifee</t>
+  </si>
+  <si>
+    <t>Guard Captain</t>
+  </si>
+  <si>
+    <t>Mullifee's stern face has been hardened by age. Once, those who cared to know her stories were lulled to sleep with whispered ghost stories and lore.</t>
+  </si>
+  <si>
+    <t>family_favor</t>
+  </si>
+  <si>
+    <t>shunned</t>
+  </si>
+  <si>
+    <t>banquod_pendant</t>
+  </si>
+  <si>
+    <t>c177b7a4-aa8e-4fc7-a4c2-bff3c41434ea</t>
+  </si>
+  <si>
+    <t>Murk</t>
+  </si>
+  <si>
+    <t>For a criminal, Murk is pretty weak in resolve—but he makes up for it by being quick on his feet.</t>
+  </si>
+  <si>
+    <t>9a869d0e-b558-451e-8f7a-c022d122534d</t>
+  </si>
+  <si>
+    <t>Murkot</t>
+  </si>
+  <si>
+    <t>Myrkot</t>
+  </si>
+  <si>
+    <t>You've seen Myrkot's name written on crates, but have never chanced to look inside any of them.</t>
+  </si>
+  <si>
+    <t>c5122d26-1930-448d-952f-ea2faff1908f</t>
+  </si>
+  <si>
+    <t>Nadan</t>
+  </si>
+  <si>
+    <t>Leader</t>
+  </si>
+  <si>
+    <t>With a face like his, it's no wonder Nadan has a reputation, even if he thinks it's bigger than it is.</t>
+  </si>
+  <si>
+    <t>chieftain</t>
+  </si>
+  <si>
+    <t>kill_list</t>
+  </si>
+  <si>
+    <t>nadans_blade</t>
+  </si>
+  <si>
+    <t>a5b0be71-a0b1-4e73-9a6f-b303945bec65</t>
+  </si>
+  <si>
+    <t>Nand</t>
+  </si>
+  <si>
+    <t>Rumor has it Nand has been thinking about running for leadership. It's unfortunate that he doesn't live in a democracy.</t>
+  </si>
+  <si>
+    <t>11ebfdd0-e82b-4d8d-a690-c36947a9013d</t>
+  </si>
+  <si>
+    <t>Nekdo</t>
+  </si>
+  <si>
+    <t>Nekdo doesn't know what the easy life looks like, but he keeps his eyes peeled all the same.</t>
+  </si>
+  <si>
+    <t>033775f3-0a36-4b9b-b663-e468e8bc0d59</t>
+  </si>
+  <si>
+    <t>Nodoloolis</t>
+  </si>
+  <si>
+    <t>Nodoloolis is named after an ancient city of the Vagrant Age, now rumored to sit at the bottom of the Deltrean Sea.</t>
+  </si>
+  <si>
+    <t>ede31111-0ed2-408e-8576-166b22c887fd</t>
+  </si>
+  <si>
+    <t>Nophri</t>
+  </si>
+  <si>
+    <t>Nophri isn't known for his eloquence. Should give you an advantage.</t>
+  </si>
+  <si>
+    <t>4acc5ab9-c130-429f-9c95-6ab49c8d9319</t>
+  </si>
+  <si>
+    <t>Nup</t>
+  </si>
+  <si>
+    <t>Bandits don't generally take to leadership, unless it's as tough and ruthless as Nup.</t>
+  </si>
+  <si>
+    <t>feac1fa4-c431-4a8d-a780-5666278a3273</t>
+  </si>
+  <si>
+    <t>Ochre Drusk</t>
+  </si>
+  <si>
+    <t>Shambling Conglomeration</t>
+  </si>
+  <si>
+    <t>Okonomi</t>
+  </si>
+  <si>
+    <t>One way to climb the social ladder is to hope that Hesh's will compels it. That's Okonomi's thinking.</t>
+  </si>
+  <si>
+    <t>4562f131-63e2-466e-808a-0640891e51b9</t>
+  </si>
+  <si>
+    <t>Onnawor</t>
+  </si>
+  <si>
+    <t>You get the feeling Onnawor would do anything to turn a profit.</t>
+  </si>
+  <si>
+    <t>c20a1cd9-b06a-44ff-aa6d-20d121adaf33</t>
+  </si>
+  <si>
+    <t>Oolo</t>
+  </si>
+  <si>
+    <t>Intelligence Officer</t>
+  </si>
+  <si>
+    <t>She looks young for an Admiralty officer of her rank, suggesting either competence or nepotism.</t>
+  </si>
+  <si>
+    <t>admiralty_medals</t>
+  </si>
+  <si>
+    <t>wrong_papers</t>
+  </si>
+  <si>
+    <t>charged_disc</t>
+  </si>
+  <si>
+    <t>9d52d977-b196-4877-9499-7535b191f177</t>
+  </si>
+  <si>
+    <t>Opple</t>
+  </si>
+  <si>
+    <t>Best watch the manifest close, as Opple has a habit of doing black magic with the numbers.</t>
+  </si>
+  <si>
+    <t>ef026cd8-984f-4deb-bfa9-19ee43b5e0fe</t>
+  </si>
+  <si>
+    <t>Orug</t>
+  </si>
+  <si>
+    <t>Whether it's heavy lifting or heavy hitting, Orug's not afraid to get heavy.</t>
+  </si>
+  <si>
+    <t>35349798-27fa-44f9-a6d7-4a8c81b1d9d6</t>
+  </si>
+  <si>
+    <t>Oso</t>
+  </si>
+  <si>
+    <t>Oso has been in the griftlands for only a year, but he seems to be fitting in well.</t>
+  </si>
+  <si>
+    <t>06f576a5-1ac9-4094-8a81-5bc3afb87eed</t>
+  </si>
+  <si>
+    <t>Palamborat</t>
+  </si>
+  <si>
+    <t>DELTREAN</t>
+  </si>
+  <si>
+    <t>diplomats_badge</t>
+  </si>
+  <si>
+    <t>62edca0d-914e-47c4-a871-626e7cfb15c6</t>
+  </si>
+  <si>
+    <t>Pallitriax</t>
+  </si>
+  <si>
+    <t>Bishop of the Foam</t>
+  </si>
+  <si>
+    <t>anointed</t>
+  </si>
+  <si>
+    <t>lumin_canister</t>
+  </si>
+  <si>
+    <t>76edf63d-c80c-4f2f-8f30-365661e941f8</t>
+  </si>
+  <si>
+    <t>Pau</t>
+  </si>
+  <si>
+    <t>Hesh doesn't expect much from its followers, but Pau clearly strives to exceed expectations.</t>
+  </si>
+  <si>
+    <t>2774714a-aa29-4420-999b-9f97872d913c</t>
+  </si>
+  <si>
+    <t>Pazlock</t>
+  </si>
+  <si>
+    <t>Some folks look like they can handle the rough life more than others. Pazlock? Yeah, he'll do.</t>
+  </si>
+  <si>
+    <t>03a0184a-f084-45fc-886e-aff564a54e5b</t>
+  </si>
+  <si>
+    <t>Pearlman</t>
+  </si>
+  <si>
+    <t>57c2610a-13db-46aa-8167-873855cc199e</t>
+  </si>
+  <si>
+    <t>Pengemunt</t>
+  </si>
+  <si>
+    <t>Coin Trader</t>
+  </si>
+  <si>
+    <t>Pengemunt carries himself with the tell-tale gait of an Aerostat officer.</t>
+  </si>
+  <si>
+    <t>39e5c4ed-aba2-40c0-8f37-f208bd6d5969</t>
+  </si>
+  <si>
+    <t>Peri</t>
+  </si>
+  <si>
+    <t>Peri is rumored to be engaged in criminal activity on the side. Regardless of if it's true, you'd hate to be the one who started the rumor.</t>
+  </si>
+  <si>
+    <t>cfb571e2-dac9-408a-b773-98e1dbe67882</t>
+  </si>
+  <si>
+    <t>Pestafur</t>
+  </si>
+  <si>
+    <t>Though she almost drowned once as a pup, Pestafur grew up a true-blue zealot with only the smallest fear of water.</t>
+  </si>
+  <si>
+    <t>678a84a6-0315-4a64-8d9a-9cd0b69983eb</t>
+  </si>
+  <si>
+    <t>Phinoon</t>
+  </si>
+  <si>
+    <t>Phinoon is often seen killing it on the dance floor, but it's unclear if this means he's a good dancer or a terrible hunter.</t>
+  </si>
+  <si>
+    <t>e6338b8f-d48b-4236-9da7-f3b7c83e9771</t>
+  </si>
+  <si>
+    <t>Phroluk</t>
+  </si>
+  <si>
+    <t>Some people keep pets. Phroluk keeps battle steeds.</t>
+  </si>
+  <si>
+    <t>3a96d6f7-7464-45ba-87c4-69068b31a095</t>
+  </si>
+  <si>
+    <t>Phrylotas</t>
+  </si>
+  <si>
+    <t>f8090138-8eb2-4e57-ab01-b8ecac4ee48e</t>
+  </si>
+  <si>
+    <t>Phryniwin</t>
+  </si>
+  <si>
+    <t>Phryniwin's family dedicated her to the Cult at a young age, but she's taken to it better than most.</t>
+  </si>
+  <si>
+    <t>12e72803-03b2-498f-beac-1d876e4cb4db</t>
+  </si>
+  <si>
+    <t>Plocka</t>
+  </si>
+  <si>
+    <t>Plocka keeps her purse strings tight, but she's been known to favor a friend in need.</t>
+  </si>
+  <si>
+    <t>65a069bc-46a7-4206-a645-ee2eb071bbc3</t>
+  </si>
+  <si>
+    <t>Pluk</t>
+  </si>
+  <si>
+    <t>Between the fuel stains and the fire in her eyes, it's easy to see a bit of yourself in Pluk.</t>
+  </si>
+  <si>
+    <t>780c0907-0f36-445e-9601-624686765ff4</t>
+  </si>
+  <si>
+    <t>Plundak</t>
+  </si>
+  <si>
+    <t>Dodgy Scavenger</t>
+  </si>
+  <si>
+    <t>4ba09998-36da-462a-8c8b-b9153469243d</t>
+  </si>
+  <si>
+    <t>Pock</t>
+  </si>
+  <si>
+    <t>Pock chews a piece of leather between her front teeth like it's a pacifier.</t>
+  </si>
+  <si>
+    <t>e2c36b38-5153-493d-b238-1084fdd16089</t>
+  </si>
+  <si>
+    <t>Pozgo</t>
+  </si>
+  <si>
+    <t>"Pozgo" was the legendary ruler of a long-forgotten planet. You wonder if &lt;i&gt;this&lt;/i&gt; Pozgo lived up to his parents' expectations.</t>
+  </si>
+  <si>
+    <t>db1289e0-30ea-490c-be00-3c6b9ffbe3ea</t>
+  </si>
+  <si>
+    <t>Prax</t>
+  </si>
+  <si>
+    <t>Promoted Priest</t>
+  </si>
+  <si>
+    <t>Few folks make it as far as Prax without looking smug about it. Prax is no exception.</t>
+  </si>
+  <si>
+    <t>heshian_amulet_plus</t>
+  </si>
+  <si>
+    <t>0a64c64f-d3bf-4fa5-8155-8f4c33a9ed02</t>
+  </si>
+  <si>
+    <t>Prekt</t>
+  </si>
+  <si>
+    <t>The scars on her hands suggest Prekt is no stranger to a stacked fight.</t>
+  </si>
+  <si>
+    <t>258373ab-3cfe-49b3-874e-e11e5e41816d</t>
+  </si>
+  <si>
+    <t>Prent</t>
+  </si>
+  <si>
+    <t>Some folks might describe Prent as tenacious, others as just vindictive. Two coins, same purse.</t>
+  </si>
+  <si>
+    <t>592ceb1e-a02d-4dca-bb0d-5a501cd8d50e</t>
+  </si>
+  <si>
+    <t>Prindo Kalandra</t>
+  </si>
+  <si>
+    <t>Organizer</t>
+  </si>
+  <si>
+    <t>A life of labor in the Bog has made Kalandra as cunning as she is adept.</t>
+  </si>
+  <si>
+    <t>excavator</t>
+  </si>
+  <si>
+    <t>buried</t>
+  </si>
+  <si>
+    <t>battle_plan</t>
+  </si>
+  <si>
+    <t>c98daa80-f4e2-46d3-8dae-d9a671c8a093</t>
+  </si>
+  <si>
+    <t>Ptchu</t>
+  </si>
+  <si>
+    <t>When Ptchu introduces himself, people tend to back away. But the name isn't as contagious as it sounds.</t>
+  </si>
+  <si>
+    <t>e98db2ca-921e-4d3f-b482-aa376897e7eb</t>
+  </si>
+  <si>
+    <t>Qita</t>
+  </si>
+  <si>
+    <t>You've heard Qita's name spoken like it's got a razor's edge, but you don't remember the details.</t>
+  </si>
+  <si>
+    <t>cd843338-6a66-4429-ad22-a812bbcf6f47</t>
+  </si>
+  <si>
+    <t>Quale</t>
+  </si>
+  <si>
+    <t>As a pup, Quale never thought he'd find purpose in Hesh's slippery grip.</t>
+  </si>
+  <si>
+    <t>20c1ea0b-1115-4e6f-a482-4b13b352212d</t>
+  </si>
+  <si>
+    <t>Quarryn</t>
+  </si>
+  <si>
+    <t>Rumor has it Quarryn earned his way into the Spark Barons by inventing an automatic nose-blower. Guess he can sniff out any opportunity.</t>
+  </si>
+  <si>
+    <t>dc1a5823-ad6e-41b7-b0de-b46636c3abe6</t>
+  </si>
+  <si>
+    <t>Queek</t>
+  </si>
+  <si>
+    <t>Not all jakes do things by the book, but Queek's reputation, at least, is queeky clean.</t>
+  </si>
+  <si>
+    <t>4ec03e7c-77ab-4fbf-981b-791c2e6eae6b</t>
+  </si>
+  <si>
+    <t>Rake</t>
+  </si>
+  <si>
+    <t>Rake is never one for surprises.</t>
+  </si>
+  <si>
+    <t>59ae37e5-b503-40f5-bca5-b0ef2c86bb15</t>
+  </si>
+  <si>
+    <t>Rasma</t>
+  </si>
+  <si>
+    <t>Word is Rasma was the youngest Spark Baron to ever join the ranks, which does explain the cherubic shine in her eyes.</t>
+  </si>
+  <si>
+    <t>27ffbcc6-5417-468e-a765-21ffe0c180cd</t>
+  </si>
+  <si>
+    <t>Riito</t>
+  </si>
+  <si>
+    <t>When you want to put a wall between yourself and the world, you could do worse than Riito.</t>
+  </si>
+  <si>
+    <t>8eeda253-7d89-4aa7-ba87-4e94d44b6cbb</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>d3be788a-5710-4d9a-a1ce-9ee550247706</t>
+  </si>
+  <si>
+    <t>Ronno</t>
+  </si>
+  <si>
+    <t>Apparently Ronno lost the hearing in her right earnub after a swamp gas explosion. Fortunately she hears extra-well out of the left one.</t>
+  </si>
+  <si>
+    <t>94cfc8f0-ae30-4ecb-9190-b1a274f0c5bb</t>
+  </si>
+  <si>
+    <t>Rook</t>
+  </si>
+  <si>
+    <t>Operative</t>
+  </si>
+  <si>
+    <t>GRIFTER</t>
+  </si>
+  <si>
+    <t>grumpy_scowl</t>
+  </si>
+  <si>
+    <t>contagious</t>
+  </si>
+  <si>
+    <t>rooks_spare_coin</t>
+  </si>
+  <si>
+    <t>Rorok</t>
+  </si>
+  <si>
+    <t>Like many of the rank and file, Rorok finds it easier to enforce the laws she makes up on the spot.</t>
+  </si>
+  <si>
+    <t>16414171-c7ca-4be3-ad32-505cc39725b3</t>
+  </si>
+  <si>
+    <t>Ruck</t>
+  </si>
+  <si>
+    <t>Ruck's bar brawls and raucous laughter alike have earned her a reputation she doesn't seem quick to dispel.</t>
+  </si>
+  <si>
+    <t>42f6d40c-25db-48a6-85c2-c438c27e5183</t>
+  </si>
+  <si>
+    <t>Rudana</t>
+  </si>
+  <si>
+    <t>What Rudana has sacrificed in scruples he's made up for in passive aggression.</t>
+  </si>
+  <si>
+    <t>adaeef86-d12e-4bea-9a6f-04a604f0ad55</t>
+  </si>
+  <si>
+    <t>Rug</t>
+  </si>
+  <si>
+    <t>Where Rug walks, flavor follows, which is a sad consequence of a seasoning pouch full of bullet holes.</t>
+  </si>
+  <si>
+    <t>bbfa179e-8b51-434a-9f47-0fd3f29daf13</t>
+  </si>
+  <si>
+    <t>Rugis</t>
+  </si>
+  <si>
+    <t>Rugis is working for the weekend, in that he's asserting the right to something called 'the weekend'.</t>
+  </si>
+  <si>
+    <t>a43564bd-de12-4e96-ae1b-9d01f1d85b62</t>
+  </si>
+  <si>
+    <t>Sal</t>
+  </si>
+  <si>
+    <t>Bounty Hunter</t>
+  </si>
+  <si>
+    <t>Sal's eyes suggest a bright mind, but the roughness of her hands show a hard life.</t>
+  </si>
+  <si>
+    <t>people_person</t>
+  </si>
+  <si>
+    <t>wrong_side</t>
+  </si>
+  <si>
+    <t>red_scarf</t>
+  </si>
+  <si>
+    <t>10524886-7554-44df-bd4c-c475eec54d94</t>
+  </si>
+  <si>
+    <t>Sandrano</t>
+  </si>
+  <si>
+    <t>Sandrano chose his career based off the assumption that desk jockeys get the best desk tchochkes.</t>
+  </si>
+  <si>
+    <t>ef537de0-4843-4ff4-96b9-5ca0fa24b2ed</t>
+  </si>
+  <si>
+    <t>Seemli</t>
+  </si>
+  <si>
+    <t>Firebrand</t>
+  </si>
+  <si>
+    <t>Though she doesn't look like much, Seemli's eye packs a punch that's best not underestimated.</t>
+  </si>
+  <si>
+    <t>covert_supplier</t>
+  </si>
+  <si>
+    <t>disorder</t>
+  </si>
+  <si>
+    <t>seemlis_dagger</t>
+  </si>
+  <si>
+    <t>a906b8c2-7260-4f88-ad89-15d9f3319b9f</t>
+  </si>
+  <si>
+    <t>Selaynia</t>
+  </si>
+  <si>
+    <t>You're not sure what Selaynia invented to get himself into the Spark Barons, but if you had to guess, you wouldn't say mouthwash.</t>
+  </si>
+  <si>
+    <t>a5359f2d-0ac5-4d17-9cc7-49ae6b643f11</t>
+  </si>
+  <si>
+    <t>Sentru</t>
+  </si>
+  <si>
+    <t>Just because Sentru's in charge, doesn't mean the labor's any lighter.</t>
+  </si>
+  <si>
+    <t>86cb4126-295f-4628-a3fb-265924d4b605</t>
+  </si>
+  <si>
+    <t>Shel</t>
+  </si>
+  <si>
+    <t>Downtrodden Merchant</t>
+  </si>
+  <si>
+    <t>Shel has a glint in her eye so sharp you could shuck an oyster off it.</t>
+  </si>
+  <si>
+    <t>f5c5bf85-1e7b-4f40-9ab3-5794f4d37f0a</t>
+  </si>
+  <si>
+    <t>Shlock</t>
+  </si>
+  <si>
+    <t>44f70e1f-d0ca-4163-b558-3851ad56035a</t>
+  </si>
+  <si>
+    <t>Shredmaw</t>
+  </si>
+  <si>
+    <t>Devouring Horror</t>
+  </si>
+  <si>
+    <t>shredmaw_shell</t>
+  </si>
+  <si>
+    <t>Shroog</t>
+  </si>
+  <si>
+    <t>Slobbering Aberration</t>
+  </si>
+  <si>
+    <t>shroog_fang</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Walking Disaster</t>
+  </si>
+  <si>
+    <t>smiths_canteen</t>
+  </si>
+  <si>
+    <t>ed424680-a6ca-4680-b51e-4f37f4afe5b9</t>
+  </si>
+  <si>
+    <t>Sparky</t>
+  </si>
+  <si>
+    <t>system_shock</t>
+  </si>
+  <si>
+    <t>short_circuit</t>
+  </si>
+  <si>
+    <t>sparkys_oppressor_cell</t>
+  </si>
+  <si>
+    <t>65ac77e9-75c3-4779-9ae8-650a3ffb11ec</t>
+  </si>
+  <si>
+    <t>Speerun</t>
+  </si>
+  <si>
+    <t>Speerun's foot falls are so silent that you wouldn't know she passed, if not for the impressions of her feet in the mud.</t>
+  </si>
+  <si>
+    <t>40a89e83-7911-4163-952b-03aa2bc36f2f</t>
+  </si>
+  <si>
+    <t>Spotz</t>
+  </si>
+  <si>
+    <t>If you think Spotz is a little slow on the uptake, you should see Spotz run.</t>
+  </si>
+  <si>
+    <t>dcbf87e5-6664-4cf5-ace5-25f219ecc9a5</t>
+  </si>
+  <si>
+    <t>Sru</t>
+  </si>
+  <si>
+    <t>Sru isn't your typical kra'deshi name—you wonder if it's short for something.</t>
+  </si>
+  <si>
+    <t>e2536f98-4f28-44d8-9330-f42785561953</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Party Machine</t>
+  </si>
+  <si>
+    <t>Steven has a bit more personality than the average automech, which likely means it's extremely defective—or that the rest of the automechs are.</t>
+  </si>
+  <si>
+    <t>c45303e2-7a50-484c-a1c8-419c76fdf5d3</t>
+  </si>
+  <si>
+    <t>Stollo</t>
+  </si>
+  <si>
+    <t>Stollo has a name that slips off the tongue like a spit. You doubt he'll turn the other cheek in response.</t>
+  </si>
+  <si>
+    <t>cd9aee75-22a9-4e00-b44c-7daf261d56e0</t>
+  </si>
+  <si>
+    <t>Stoque</t>
+  </si>
+  <si>
+    <t>Promoted Thug</t>
+  </si>
+  <si>
+    <t>Not everyone is defined by their headwear, but Stoque keeps things tightly knit.</t>
+  </si>
+  <si>
+    <t>makeshift_dagger_plus</t>
+  </si>
+  <si>
+    <t>044ed127-6f37-43a9-9ba4-4a217f848e45</t>
+  </si>
+  <si>
+    <t>Sweet Moreef</t>
   </si>
   <si>
     <t>top_shelf</t>
-  </si>
-  <si>
-    <t>60f23d4e-9afc-4670-998a-3f5cf8ea182f</t>
-  </si>
-  <si>
-    <t>Heft</t>
-  </si>
-  <si>
-    <t>Heft might be intimidating if she didn't have a habit of chewing her nails to the quick.</t>
-  </si>
-  <si>
-    <t>f16d05eb-4e13-47b7-819d-6b5a130f3491</t>
-  </si>
-  <si>
-    <t>Heleet</t>
-  </si>
-  <si>
-    <t>It's hard to believe Heleet has a reputation for being a bit of a Casanova, but then you always were immune to such charms.</t>
-  </si>
-  <si>
-    <t>444c2494-38d1-44fc-aa1f-2621f6d9154b</t>
-  </si>
-  <si>
-    <t>Henders</t>
-  </si>
-  <si>
-    <t>Luminitiate</t>
-  </si>
-  <si>
-    <t>Henders used to stick his head beneath the water in the hopes of getting a look at Hesh. The constant lack of oxygen might've had an effect.</t>
-  </si>
-  <si>
-    <t>5349c1a6-bbfd-44d0-a6b2-cb6f39549b6b</t>
-  </si>
-  <si>
-    <t>Hiqu</t>
-  </si>
-  <si>
-    <t>Hiqu's mysterious poetry has been found scribbled in privies from Murder Bay to the Bread Fields.</t>
-  </si>
-  <si>
-    <t>a972959f-3f58-4911-82b5-c50387c2af3a</t>
-  </si>
-  <si>
-    <t>Hrikit</t>
-  </si>
-  <si>
-    <t>Hrikit's name has the rough edges of the Rentorian dialect, but there's no hint of an accent when she barks.</t>
-  </si>
-  <si>
-    <t>9e7a107f-af9a-4099-9d44-643034a10a0c</t>
-  </si>
-  <si>
-    <t>Hundruthor</t>
-  </si>
-  <si>
-    <t>Auctioneer</t>
-  </si>
-  <si>
-    <t>Hundruthor knows the value of his time, and he's not sure you're worth it.</t>
-  </si>
-  <si>
-    <t>f8060135-6140-471c-b509-541cbf05d5fc</t>
-  </si>
-  <si>
-    <t>Idri</t>
-  </si>
-  <si>
-    <t>Where trouble goes, Idri follows, always on the lookout for opportunity.</t>
-  </si>
-  <si>
-    <t>32a1febb-d8a7-4875-8bb2-d07bed4dedc6</t>
-  </si>
-  <si>
-    <t>Iggory</t>
-  </si>
-  <si>
-    <t>You can tell Iggory approaches by the florid waft emanating from his coat: the work of a pocket perfumer.</t>
-  </si>
-  <si>
-    <t>348b9e8a-2921-489d-a6ea-e439af31b59a</t>
-  </si>
-  <si>
-    <t>Imiko</t>
-  </si>
-  <si>
-    <t>Laborers say Imiko is tough but fair—or was that tough but beware?</t>
-  </si>
-  <si>
-    <t>cc570c2c-a054-4296-9af2-e787611cd46a</t>
-  </si>
-  <si>
-    <t>Ionis</t>
-  </si>
-  <si>
-    <t>Luminari</t>
-  </si>
-  <si>
-    <t>Few folks survive the rigorous training needed to become Luminari. Ionis wears it like a halo of sunshine.</t>
-  </si>
-  <si>
-    <t>bell_of_hesh</t>
-  </si>
-  <si>
-    <t>curse_of_hesh</t>
-  </si>
-  <si>
-    <t>heshian_mask</t>
-  </si>
-  <si>
-    <t>96f130ca-64ec-4c6f-bfb9-4bb6a7b4ab19</t>
-  </si>
-  <si>
-    <t>Irkrow</t>
-  </si>
-  <si>
-    <t>A good bartender knows how to mix a drink. The better bartenders know how to fix a fight. Irkrow does both.</t>
-  </si>
-  <si>
-    <t>mixology</t>
-  </si>
-  <si>
-    <t>4b36014f-dc5f-40ba-b3eb-6e727f9ed755</t>
-  </si>
-  <si>
-    <t>Jand</t>
-  </si>
-  <si>
-    <t>It takes a mean life to put that mean look in Jand's eye.</t>
-  </si>
-  <si>
-    <t>491d8952-5197-4521-88e0-b6cac18d02e9</t>
-  </si>
-  <si>
-    <t>Jani</t>
-  </si>
-  <si>
-    <t>Where Jani goes, others follow. It's best to watch her closely.</t>
-  </si>
-  <si>
-    <t>05a63db8-3f94-40ac-88e3-18ee2c879140</t>
-  </si>
-  <si>
-    <t>Jeetee</t>
-  </si>
-  <si>
-    <t>Word is Jeetee's a good boss, but in Havaria that doesn't necessarily mean she's a fair one.</t>
-  </si>
-  <si>
-    <t>525a4014-7a4c-49c7-82fa-53b1b59de913</t>
-  </si>
-  <si>
-    <t>Jeol</t>
-  </si>
-  <si>
-    <t>Drone Master</t>
-  </si>
-  <si>
-    <t>Jeol's blank gaze is a little unnerving, but you've cracked harder heads.</t>
-  </si>
-  <si>
-    <t>drone_mastery</t>
-  </si>
-  <si>
-    <t>drone_supplier</t>
-  </si>
-  <si>
-    <t>prototype_drone</t>
-  </si>
-  <si>
-    <t>6ab9ae20-eead-4049-bdca-53d7efa803ef</t>
-  </si>
-  <si>
-    <t>Juke</t>
-  </si>
-  <si>
-    <t>Juke's a bit of a newcomer on the Havarian smuggling scene, but she makes up for it by charging a ruthless fee.</t>
-  </si>
-  <si>
-    <t>354404ef-b560-4fe1-86e5-dde04f7fc1f8</t>
-  </si>
-  <si>
-    <t>Jurna</t>
-  </si>
-  <si>
-    <t>Some folks love their beasts, and other folks just smell like them.</t>
-  </si>
-  <si>
-    <t>41d64a7e-508c-488f-a0a5-a064a2ad481f</t>
-  </si>
-  <si>
-    <t>Justice</t>
-  </si>
-  <si>
-    <t>As her name suggests, Justice is firm, ruthless, and has very little sense of irony.</t>
-  </si>
-  <si>
-    <t>aee58920-e2d5-4c6d-8c83-42ef23034015</t>
-  </si>
-  <si>
-    <t>Kallo</t>
-  </si>
-  <si>
-    <t>Kallo grew up with a thirst for lumin wine and a tendency to chew with her mouth open.</t>
-  </si>
-  <si>
-    <t>a7bd78cc-582a-466b-86e2-e6a33cef9c6a</t>
-  </si>
-  <si>
-    <t>Karet</t>
-  </si>
-  <si>
-    <t>Promoted Security Guard</t>
-  </si>
-  <si>
-    <t>A steely gaze can't distract from the twitch of Karet's fingers, like he's dissecting a piece of Vagrant tech in his head.</t>
-  </si>
-  <si>
-    <t>weapons_supplier</t>
-  </si>
-  <si>
-    <t>sketchy_equipment</t>
-  </si>
-  <si>
-    <t>shock_core_plus</t>
-  </si>
-  <si>
-    <t>18009d9c-d1bf-42a7-9343-b38921ab2c9c</t>
-  </si>
-  <si>
-    <t>Kashio</t>
-  </si>
-  <si>
-    <t>Freelancer</t>
-  </si>
-  <si>
-    <t>The biggest debt-broker in Murder Bay, Kashio was once an indentured laborer who earned herself a reputation as a self-made kingpin.</t>
-  </si>
-  <si>
-    <t>troubled_past</t>
-  </si>
-  <si>
-    <t>c095c17d-98ac-463c-b70f-5eedae4a5fc3</t>
-  </si>
-  <si>
-    <t>Keebee</t>
-  </si>
-  <si>
-    <t>Where most Spark Barons seek profit, Keebee seeks opportunities.</t>
-  </si>
-  <si>
-    <t>b6a3425a-f184-4524-afdb-063be16c55da</t>
-  </si>
-  <si>
-    <t>Kel</t>
-  </si>
-  <si>
-    <t>Got a problem with the Spree? To Kel with it.</t>
-  </si>
-  <si>
-    <t>26148c69-8ae6-46ae-8a18-5439a6d4e634</t>
-  </si>
-  <si>
-    <t>Kenga</t>
-  </si>
-  <si>
-    <t>Kenga's never received a shill she hasn't scrutinized for authenticity.</t>
-  </si>
-  <si>
-    <t>ec369442-6d53-4495-aa47-97a25a935182</t>
-  </si>
-  <si>
-    <t>Kheven</t>
-  </si>
-  <si>
-    <t>Security Guard</t>
-  </si>
-  <si>
-    <t>Kheven doesn't seem to look entirely certain about his place in the world, but he's clearly hoping to make the best of it.</t>
-  </si>
-  <si>
-    <t>shock_core</t>
-  </si>
-  <si>
-    <t>1a003e71-e581-49a3-8387-f463ae4771a4</t>
-  </si>
-  <si>
-    <t>Kilka</t>
-  </si>
-  <si>
-    <t>Kilka has the look of someone who was promised a better hand than the one she got. She suspects someone cheated.</t>
-  </si>
-  <si>
-    <t>1e70d47f-b0f3-4b46-be73-e6e63e1669b3</t>
-  </si>
-  <si>
-    <t>Kof</t>
-  </si>
-  <si>
-    <t>This smuggler has a reputation for negotiating steep fees for his services. Perhaps the origin of the Havarian phrase "coughing up the cash".</t>
-  </si>
-  <si>
-    <t>1156acd1-23cb-4e69-871d-46c999cc8a22</t>
-  </si>
-  <si>
-    <t>Koqy</t>
-  </si>
-  <si>
-    <t>The Heshians say good food brings you closer to the divine. Koqy could be a priest.</t>
-  </si>
-  <si>
-    <t>3771afbb-fe1d-4b01-bc7f-59342b27c6f6</t>
-  </si>
-  <si>
-    <t>Krikith</t>
-  </si>
-  <si>
-    <t>Cultivator</t>
-  </si>
-  <si>
-    <t>You're not sure what came first: Krikith, or the sound of his name chirping from the bog.</t>
-  </si>
-  <si>
-    <t>inoculated</t>
-  </si>
-  <si>
-    <t>bog_sensitive</t>
-  </si>
-  <si>
-    <t>bog_scimitar</t>
-  </si>
-  <si>
-    <t>34e75900-41d9-42d1-8c1d-13f39df50718</t>
-  </si>
-  <si>
-    <t>Krog</t>
-  </si>
-  <si>
-    <t>You'd bet your last shill that Krog knows his way around his own sleeve—preferably, though, you wouldn't bet against Krog.</t>
-  </si>
-  <si>
-    <t>754b5bfb-a24c-4803-b80b-397eefaf8717</t>
-  </si>
-  <si>
-    <t>Kuga</t>
-  </si>
-  <si>
-    <t>Rather than a bad side, Kuga seems to have a bad continent. Best to stay off it.</t>
-  </si>
-  <si>
-    <t>43d1336b-e04c-4fef-a036-1e8400f34fcf</t>
-  </si>
-  <si>
-    <t>Kyrgian</t>
-  </si>
-  <si>
-    <t>Kra'deshi who find themselves in Kyrgian's position are typically orphans, runaways, or both.</t>
-  </si>
-  <si>
-    <t>2bb69eaf-8b9e-48cb-a1fd-d2f2d1fe1ea8</t>
-  </si>
-  <si>
-    <t>Lasquo</t>
-  </si>
-  <si>
-    <t>As with most Admiralty, Lasquo is only hard on crime that doesn't pay.</t>
-  </si>
-  <si>
-    <t>54c3a8f4-5511-4bed-bea1-4d7ec7f81752</t>
-  </si>
-  <si>
-    <t>Leeqi</t>
-  </si>
-  <si>
-    <t>Word is Leeqi makes money on the side stooging for debt-brokers and keeping the derricks well-stocked with labor.</t>
-  </si>
-  <si>
-    <t>c8f7d735-ebd5-4482-a48d-3244944395e5</t>
-  </si>
-  <si>
-    <t>Leesha</t>
-  </si>
-  <si>
-    <t>Chemist</t>
-  </si>
-  <si>
-    <t>It's unclear whether Leesha's easygoing attitude is a result of her temperament, or the fumes radiating off her wares.</t>
-  </si>
-  <si>
-    <t>af48dcab-a73f-4e75-b6d0-ca80113c5a03</t>
-  </si>
-  <si>
-    <t>Lellyn Fellemo</t>
-  </si>
-  <si>
-    <t>Regional Manager</t>
-  </si>
-  <si>
-    <t>Fellemo's old grit has been softened somewhat by his new trappings.</t>
-  </si>
-  <si>
-    <t>scheme</t>
-  </si>
-  <si>
-    <t>scandal</t>
-  </si>
-  <si>
-    <t>two_faced</t>
-  </si>
-  <si>
-    <t>d0f2573b-e294-431f-9760-cdd5dbdf3e99</t>
-  </si>
-  <si>
-    <t>Lili</t>
-  </si>
-  <si>
-    <t>Word is, Lili would sell his own grandmother if he thought he could buy her back at half price next week.</t>
-  </si>
-  <si>
-    <t>edbe4545-a328-444a-a598-beb3dfbf9ffa</t>
-  </si>
-  <si>
-    <t>Llullably</t>
-  </si>
-  <si>
-    <t>Llullably is rumored to have a voice as sweet as clover, but the Heshian chants reduce it to a watery gurgle.</t>
-  </si>
-  <si>
-    <t>dd7eadfc-a9f3-4b62-8cd8-8d55593f86ea</t>
-  </si>
-  <si>
-    <t>Lopli</t>
-  </si>
-  <si>
-    <t>Lopli rose to notoriety with her invention of a self-swindler, a wallet so secure even Lopli can't open it.</t>
-  </si>
-  <si>
-    <t>ca589efe-105c-4af6-9204-7b5bc8eb0305</t>
-  </si>
-  <si>
-    <t>Lumika</t>
-  </si>
-  <si>
-    <t>Lumika might not only have grown up with the silver spoon, but swallowed it whole.</t>
-  </si>
-  <si>
-    <t>14a25063-9102-47b3-8c79-687a7ca55595</t>
-  </si>
-  <si>
-    <t>Lux</t>
-  </si>
-  <si>
-    <t>The only thing more menacing than Lux's reputation is her laugh.</t>
-  </si>
-  <si>
-    <t>95cf259e-8d1e-42fd-a228-86ce04ffb8aa</t>
-  </si>
-  <si>
-    <t>Mainewi</t>
-  </si>
-  <si>
-    <t>Promoted Laborer</t>
-  </si>
-  <si>
-    <t>Mainewi was raised to believe hard work would be rewarded. You're impressed he hasn't had a crisis of faith.</t>
-  </si>
-  <si>
-    <t>anchor_plus</t>
-  </si>
-  <si>
-    <t>5a5d8766-0ae5-4132-998a-8b16b1923027</t>
-  </si>
-  <si>
-    <t>Mallowi</t>
-  </si>
-  <si>
-    <t>All Luminari are a bit stuck-up, but Mallowi's got sermons on the brain and a pike up his abyss.</t>
-  </si>
-  <si>
-    <t>8750d49e-130b-4aed-9248-c8370db9c1c6</t>
-  </si>
-  <si>
-    <t>Malo</t>
-  </si>
-  <si>
-    <t>Word is, Malo used to be a foreman himself, before fortune and health conspired against him.</t>
-  </si>
-  <si>
-    <t>c893f0bc-2716-4c8b-8abb-a42381c65f51</t>
-  </si>
-  <si>
-    <t>Mark Nine Nine</t>
-  </si>
-  <si>
-    <t>Defensive Program</t>
-  </si>
-  <si>
-    <t>predictive_blast</t>
-  </si>
-  <si>
-    <t>403c8d49-8718-4bc7-97c5-c7d3f023abec</t>
-  </si>
-  <si>
-    <t>Melba</t>
-  </si>
-  <si>
-    <t>Don't mess with Melba, or you'll be toast.</t>
-  </si>
-  <si>
-    <t>63b8eb0d-58ec-4328-8e68-51dec647dfd4</t>
-  </si>
-  <si>
-    <t>Milleeree</t>
-  </si>
-  <si>
-    <t>In true Havarian fashion, Milleeree's promoted status seems to have been prompted by something other than her lackluster work ethic.</t>
-  </si>
-  <si>
-    <t>59b79603-7525-4941-b390-ea13017030ff</t>
-  </si>
-  <si>
-    <t>Minfen</t>
-  </si>
-  <si>
-    <t>You've heard Minfen used to be an indebted worker. Most aren't lucky enough to make it out.</t>
-  </si>
-  <si>
-    <t>ef585e8a-e238-47c6-9fc0-7d437d278327</t>
-  </si>
-  <si>
-    <t>Monid</t>
-  </si>
-  <si>
-    <t>Monid supposedly knows the entire Heshian tract by heart, but since she's the only one that does you'll just have to take her word for it.</t>
-  </si>
-  <si>
-    <t>0bdaf6f8-537b-4eca-ad82-b186f5e745a2</t>
-  </si>
-  <si>
-    <t>Mullifee</t>
-  </si>
-  <si>
-    <t>Guard Captain</t>
-  </si>
-  <si>
-    <t>Mullifee's stern face has been hardened by age. Once, those who cared to know her stories were lulled to sleep with whispered ghost stories and lore.</t>
-  </si>
-  <si>
-    <t>family_favor</t>
-  </si>
-  <si>
-    <t>shunned</t>
-  </si>
-  <si>
-    <t>banquod_pendant</t>
-  </si>
-  <si>
-    <t>c177b7a4-aa8e-4fc7-a4c2-bff3c41434ea</t>
-  </si>
-  <si>
-    <t>Murk</t>
-  </si>
-  <si>
-    <t>For a criminal, Murk is pretty weak in resolve—but he makes up for it by being quick on his feet.</t>
-  </si>
-  <si>
-    <t>9a869d0e-b558-451e-8f7a-c022d122534d</t>
-  </si>
-  <si>
-    <t>Murkot</t>
-  </si>
-  <si>
-    <t>Myrkot</t>
-  </si>
-  <si>
-    <t>You've seen Myrkot's name written on crates, but have never chanced to look inside any of them.</t>
-  </si>
-  <si>
-    <t>c5122d26-1930-448d-952f-ea2faff1908f</t>
-  </si>
-  <si>
-    <t>Nadan</t>
-  </si>
-  <si>
-    <t>Leader</t>
-  </si>
-  <si>
-    <t>With a face like his, it's no wonder Nadan has a reputation, even if he thinks it's bigger than it is.</t>
-  </si>
-  <si>
-    <t>chieftain</t>
-  </si>
-  <si>
-    <t>kill_list</t>
-  </si>
-  <si>
-    <t>nadans_blade</t>
-  </si>
-  <si>
-    <t>a5b0be71-a0b1-4e73-9a6f-b303945bec65</t>
-  </si>
-  <si>
-    <t>Nand</t>
-  </si>
-  <si>
-    <t>Rumor has it Nand has been thinking about running for leadership. It's unfortunate that he doesn't live in a democracy.</t>
-  </si>
-  <si>
-    <t>11ebfdd0-e82b-4d8d-a690-c36947a9013d</t>
-  </si>
-  <si>
-    <t>Nekdo</t>
-  </si>
-  <si>
-    <t>Nekdo doesn't know what the easy life looks like, but he keeps his eyes peeled all the same.</t>
-  </si>
-  <si>
-    <t>033775f3-0a36-4b9b-b663-e468e8bc0d59</t>
-  </si>
-  <si>
-    <t>Nodoloolis</t>
-  </si>
-  <si>
-    <t>Nodoloolis is named after an ancient city of the Vagrant Age, now rumored to sit at the bottom of the Deltrean Sea.</t>
-  </si>
-  <si>
-    <t>ede31111-0ed2-408e-8576-166b22c887fd</t>
-  </si>
-  <si>
-    <t>Nophri</t>
-  </si>
-  <si>
-    <t>Nophri isn't known for his eloquence. Should give you an advantage.</t>
-  </si>
-  <si>
-    <t>4acc5ab9-c130-429f-9c95-6ab49c8d9319</t>
-  </si>
-  <si>
-    <t>Nup</t>
-  </si>
-  <si>
-    <t>Bandits don't generally take to leadership, unless it's as tough and ruthless as Nup.</t>
-  </si>
-  <si>
-    <t>feac1fa4-c431-4a8d-a780-5666278a3273</t>
-  </si>
-  <si>
-    <t>Ochre Drusk</t>
-  </si>
-  <si>
-    <t>Shambling Conglomeration</t>
-  </si>
-  <si>
-    <t>Okonomi</t>
-  </si>
-  <si>
-    <t>One way to climb the social ladder is to hope that Hesh's will compels it. That's Okonomi's thinking.</t>
-  </si>
-  <si>
-    <t>4562f131-63e2-466e-808a-0640891e51b9</t>
-  </si>
-  <si>
-    <t>Onnawor</t>
-  </si>
-  <si>
-    <t>You get the feeling Onnawor would do anything to turn a profit.</t>
-  </si>
-  <si>
-    <t>c20a1cd9-b06a-44ff-aa6d-20d121adaf33</t>
-  </si>
-  <si>
-    <t>Oolo</t>
-  </si>
-  <si>
-    <t>Intelligence Officer</t>
-  </si>
-  <si>
-    <t>She looks young for an Admiralty officer of her rank, suggesting either competence or nepotism.</t>
-  </si>
-  <si>
-    <t>admiralty_medals</t>
-  </si>
-  <si>
-    <t>wrong_papers</t>
-  </si>
-  <si>
-    <t>charged_disc</t>
-  </si>
-  <si>
-    <t>9d52d977-b196-4877-9499-7535b191f177</t>
-  </si>
-  <si>
-    <t>Opple</t>
-  </si>
-  <si>
-    <t>Best watch the manifest close, as Opple has a habit of doing black magic with the numbers.</t>
-  </si>
-  <si>
-    <t>ef026cd8-984f-4deb-bfa9-19ee43b5e0fe</t>
-  </si>
-  <si>
-    <t>Orug</t>
-  </si>
-  <si>
-    <t>Whether it's heavy lifting or heavy hitting, Orug's not afraid to get heavy.</t>
-  </si>
-  <si>
-    <t>35349798-27fa-44f9-a6d7-4a8c81b1d9d6</t>
-  </si>
-  <si>
-    <t>Oso</t>
-  </si>
-  <si>
-    <t>Oso has been in the griftlands for only a year, but he seems to be fitting in well.</t>
-  </si>
-  <si>
-    <t>06f576a5-1ac9-4094-8a81-5bc3afb87eed</t>
-  </si>
-  <si>
-    <t>Palamborat</t>
-  </si>
-  <si>
-    <t>DELTREAN</t>
-  </si>
-  <si>
-    <t>diplomats_badge</t>
-  </si>
-  <si>
-    <t>62edca0d-914e-47c4-a871-626e7cfb15c6</t>
-  </si>
-  <si>
-    <t>Pallitriax</t>
-  </si>
-  <si>
-    <t>Bishop of the Foam</t>
-  </si>
-  <si>
-    <t>anointed</t>
-  </si>
-  <si>
-    <t>heathen</t>
-  </si>
-  <si>
-    <t>lumin_canister</t>
-  </si>
-  <si>
-    <t>76edf63d-c80c-4f2f-8f30-365661e941f8</t>
-  </si>
-  <si>
-    <t>Pau</t>
-  </si>
-  <si>
-    <t>Hesh doesn't expect much from its followers, but Pau clearly strives to exceed expectations.</t>
-  </si>
-  <si>
-    <t>2774714a-aa29-4420-999b-9f97872d913c</t>
-  </si>
-  <si>
-    <t>Pazlock</t>
-  </si>
-  <si>
-    <t>Some folks look like they can handle the rough life more than others. Pazlock? Yeah, he'll do.</t>
-  </si>
-  <si>
-    <t>03a0184a-f084-45fc-886e-aff564a54e5b</t>
-  </si>
-  <si>
-    <t>Pearlman</t>
-  </si>
-  <si>
-    <t>57c2610a-13db-46aa-8167-873855cc199e</t>
-  </si>
-  <si>
-    <t>Pengemunt</t>
-  </si>
-  <si>
-    <t>Coin Trader</t>
-  </si>
-  <si>
-    <t>Pengemunt carries himself with the tell-tale gait of an Aerostat officer.</t>
-  </si>
-  <si>
-    <t>39e5c4ed-aba2-40c0-8f37-f208bd6d5969</t>
-  </si>
-  <si>
-    <t>Peri</t>
-  </si>
-  <si>
-    <t>Peri is rumored to be engaged in criminal activity on the side. Regardless of if it's true, you'd hate to be the one who started the rumor.</t>
-  </si>
-  <si>
-    <t>cfb571e2-dac9-408a-b773-98e1dbe67882</t>
-  </si>
-  <si>
-    <t>Pestafur</t>
-  </si>
-  <si>
-    <t>Though she almost drowned once as a pup, Pestafur grew up a true-blue zealot with only the smallest fear of water.</t>
-  </si>
-  <si>
-    <t>678a84a6-0315-4a64-8d9a-9cd0b69983eb</t>
-  </si>
-  <si>
-    <t>Phinoon</t>
-  </si>
-  <si>
-    <t>Phinoon is often seen killing it on the dance floor, but it's unclear if this means he's a good dancer or a terrible hunter.</t>
-  </si>
-  <si>
-    <t>e6338b8f-d48b-4236-9da7-f3b7c83e9771</t>
-  </si>
-  <si>
-    <t>Phroluk</t>
-  </si>
-  <si>
-    <t>Some people keep pets. Phroluk keeps battle steeds.</t>
-  </si>
-  <si>
-    <t>3a96d6f7-7464-45ba-87c4-69068b31a095</t>
-  </si>
-  <si>
-    <t>Phrylotas</t>
-  </si>
-  <si>
-    <t>f8090138-8eb2-4e57-ab01-b8ecac4ee48e</t>
-  </si>
-  <si>
-    <t>Phryniwin</t>
-  </si>
-  <si>
-    <t>Phryniwin's family dedicated her to the Cult at a young age, but she's taken to it better than most.</t>
-  </si>
-  <si>
-    <t>12e72803-03b2-498f-beac-1d876e4cb4db</t>
-  </si>
-  <si>
-    <t>Plocka</t>
-  </si>
-  <si>
-    <t>Plocka keeps her purse strings tight, but she's been known to favor a friend in need.</t>
-  </si>
-  <si>
-    <t>65a069bc-46a7-4206-a645-ee2eb071bbc3</t>
-  </si>
-  <si>
-    <t>Pluk</t>
-  </si>
-  <si>
-    <t>Between the fuel stains and the fire in her eyes, it's easy to see a bit of yourself in Pluk.</t>
-  </si>
-  <si>
-    <t>780c0907-0f36-445e-9601-624686765ff4</t>
-  </si>
-  <si>
-    <t>Plundak</t>
-  </si>
-  <si>
-    <t>Dodgy Scavenger</t>
-  </si>
-  <si>
-    <t>4ba09998-36da-462a-8c8b-b9153469243d</t>
-  </si>
-  <si>
-    <t>Pock</t>
-  </si>
-  <si>
-    <t>Pock chews a piece of leather between her front teeth like it's a pacifier.</t>
-  </si>
-  <si>
-    <t>e2c36b38-5153-493d-b238-1084fdd16089</t>
-  </si>
-  <si>
-    <t>Pozgo</t>
-  </si>
-  <si>
-    <t>"Pozgo" was the legendary ruler of a long-forgotten planet. You wonder if &lt;i&gt;this&lt;/i&gt; Pozgo lived up to his parents' expectations.</t>
-  </si>
-  <si>
-    <t>db1289e0-30ea-490c-be00-3c6b9ffbe3ea</t>
-  </si>
-  <si>
-    <t>Prax</t>
-  </si>
-  <si>
-    <t>Promoted Priest</t>
-  </si>
-  <si>
-    <t>Few folks make it as far as Prax without looking smug about it. Prax is no exception.</t>
-  </si>
-  <si>
-    <t>heshian_amulet_plus</t>
-  </si>
-  <si>
-    <t>0a64c64f-d3bf-4fa5-8155-8f4c33a9ed02</t>
-  </si>
-  <si>
-    <t>Prekt</t>
-  </si>
-  <si>
-    <t>The scars on her hands suggest Prekt is no stranger to a stacked fight.</t>
-  </si>
-  <si>
-    <t>258373ab-3cfe-49b3-874e-e11e5e41816d</t>
-  </si>
-  <si>
-    <t>Prent</t>
-  </si>
-  <si>
-    <t>Some folks might describe Prent as tenacious, others as just vindictive. Two coins, same purse.</t>
-  </si>
-  <si>
-    <t>592ceb1e-a02d-4dca-bb0d-5a501cd8d50e</t>
-  </si>
-  <si>
-    <t>Prindo Kalandra</t>
-  </si>
-  <si>
-    <t>Organizer</t>
-  </si>
-  <si>
-    <t>A life of labor in the Bog has made Kalandra as cunning as she is adept.</t>
-  </si>
-  <si>
-    <t>excavator</t>
-  </si>
-  <si>
-    <t>buried</t>
-  </si>
-  <si>
-    <t>battle_plan</t>
-  </si>
-  <si>
-    <t>c98daa80-f4e2-46d3-8dae-d9a671c8a093</t>
-  </si>
-  <si>
-    <t>Ptchu</t>
-  </si>
-  <si>
-    <t>When Ptchu introduces himself, people tend to back away. But the name isn't as contagious as it sounds.</t>
-  </si>
-  <si>
-    <t>e98db2ca-921e-4d3f-b482-aa376897e7eb</t>
-  </si>
-  <si>
-    <t>Qita</t>
-  </si>
-  <si>
-    <t>You've heard Qita's name spoken like it's got a razor's edge, but you don't remember the details.</t>
-  </si>
-  <si>
-    <t>cd843338-6a66-4429-ad22-a812bbcf6f47</t>
-  </si>
-  <si>
-    <t>Quale</t>
-  </si>
-  <si>
-    <t>As a pup, Quale never thought he'd find purpose in Hesh's slippery grip.</t>
-  </si>
-  <si>
-    <t>20c1ea0b-1115-4e6f-a482-4b13b352212d</t>
-  </si>
-  <si>
-    <t>Quarryn</t>
-  </si>
-  <si>
-    <t>Rumor has it Quarryn earned his way into the Spark Barons by inventing an automatic nose-blower. Guess he can sniff out any opportunity.</t>
-  </si>
-  <si>
-    <t>dc1a5823-ad6e-41b7-b0de-b46636c3abe6</t>
-  </si>
-  <si>
-    <t>Queek</t>
-  </si>
-  <si>
-    <t>Not all jakes do things by the book, but Queek's reputation, at least, is queeky clean.</t>
-  </si>
-  <si>
-    <t>4ec03e7c-77ab-4fbf-981b-791c2e6eae6b</t>
-  </si>
-  <si>
-    <t>Rake</t>
-  </si>
-  <si>
-    <t>Rake is never one for surprises.</t>
-  </si>
-  <si>
-    <t>59ae37e5-b503-40f5-bca5-b0ef2c86bb15</t>
-  </si>
-  <si>
-    <t>Rasma</t>
-  </si>
-  <si>
-    <t>Word is Rasma was the youngest Spark Baron to ever join the ranks, which does explain the cherubic shine in her eyes.</t>
-  </si>
-  <si>
-    <t>27ffbcc6-5417-468e-a765-21ffe0c180cd</t>
-  </si>
-  <si>
-    <t>Riito</t>
-  </si>
-  <si>
-    <t>When you want to put a wall between yourself and the world, you could do worse than Riito.</t>
-  </si>
-  <si>
-    <t>8eeda253-7d89-4aa7-ba87-4e94d44b6cbb</t>
-  </si>
-  <si>
-    <t>Ron</t>
-  </si>
-  <si>
-    <t>d3be788a-5710-4d9a-a1ce-9ee550247706</t>
-  </si>
-  <si>
-    <t>Ronno</t>
-  </si>
-  <si>
-    <t>Apparently Ronno lost the hearing in her right earnub after a swamp gas explosion. Fortunately she hears extra-well out of the left one.</t>
-  </si>
-  <si>
-    <t>94cfc8f0-ae30-4ecb-9190-b1a274f0c5bb</t>
-  </si>
-  <si>
-    <t>Rook</t>
-  </si>
-  <si>
-    <t>Operative</t>
-  </si>
-  <si>
-    <t>GRIFTER</t>
-  </si>
-  <si>
-    <t>grumpy_scowl</t>
-  </si>
-  <si>
-    <t>contagious</t>
-  </si>
-  <si>
-    <t>rooks_spare_coin</t>
-  </si>
-  <si>
-    <t>Rorok</t>
-  </si>
-  <si>
-    <t>Like many of the rank and file, Rorok finds it easier to enforce the laws she makes up on the spot.</t>
-  </si>
-  <si>
-    <t>16414171-c7ca-4be3-ad32-505cc39725b3</t>
-  </si>
-  <si>
-    <t>Ruck</t>
-  </si>
-  <si>
-    <t>Ruck's bar brawls and raucous laughter alike have earned her a reputation she doesn't seem quick to dispel.</t>
-  </si>
-  <si>
-    <t>42f6d40c-25db-48a6-85c2-c438c27e5183</t>
-  </si>
-  <si>
-    <t>Rudana</t>
-  </si>
-  <si>
-    <t>What Rudana has sacrificed in scruples he's made up for in passive aggression.</t>
-  </si>
-  <si>
-    <t>adaeef86-d12e-4bea-9a6f-04a604f0ad55</t>
-  </si>
-  <si>
-    <t>Rug</t>
-  </si>
-  <si>
-    <t>Where Rug walks, flavor follows, which is a sad consequence of a seasoning pouch full of bullet holes.</t>
-  </si>
-  <si>
-    <t>bbfa179e-8b51-434a-9f47-0fd3f29daf13</t>
-  </si>
-  <si>
-    <t>Rugis</t>
-  </si>
-  <si>
-    <t>Rugis is working for the weekend, in that he's asserting the right to something called 'the weekend'.</t>
-  </si>
-  <si>
-    <t>a43564bd-de12-4e96-ae1b-9d01f1d85b62</t>
-  </si>
-  <si>
-    <t>Sal</t>
-  </si>
-  <si>
-    <t>Bounty Hunter</t>
-  </si>
-  <si>
-    <t>Sal's eyes suggest a bright mind, but the roughness of her hands show a hard life.</t>
-  </si>
-  <si>
-    <t>people_person</t>
-  </si>
-  <si>
-    <t>wrong_side</t>
-  </si>
-  <si>
-    <t>red_scarf</t>
-  </si>
-  <si>
-    <t>10524886-7554-44df-bd4c-c475eec54d94</t>
-  </si>
-  <si>
-    <t>Sandrano</t>
-  </si>
-  <si>
-    <t>Sandrano chose his career based off the assumption that desk jockeys get the best desk tchochkes.</t>
-  </si>
-  <si>
-    <t>ef537de0-4843-4ff4-96b9-5ca0fa24b2ed</t>
-  </si>
-  <si>
-    <t>Seemli</t>
-  </si>
-  <si>
-    <t>Firebrand</t>
-  </si>
-  <si>
-    <t>Though she doesn't look like much, Seemli's eye packs a punch that's best not underestimated.</t>
-  </si>
-  <si>
-    <t>covert_supplier</t>
-  </si>
-  <si>
-    <t>disorder</t>
-  </si>
-  <si>
-    <t>seemlis_dagger</t>
-  </si>
-  <si>
-    <t>a906b8c2-7260-4f88-ad89-15d9f3319b9f</t>
-  </si>
-  <si>
-    <t>Selaynia</t>
-  </si>
-  <si>
-    <t>You're not sure what Selaynia invented to get himself into the Spark Barons, but if you had to guess, you wouldn't say mouthwash.</t>
-  </si>
-  <si>
-    <t>a5359f2d-0ac5-4d17-9cc7-49ae6b643f11</t>
-  </si>
-  <si>
-    <t>Sentru</t>
-  </si>
-  <si>
-    <t>Just because Sentru's in charge, doesn't mean the labor's any lighter.</t>
-  </si>
-  <si>
-    <t>86cb4126-295f-4628-a3fb-265924d4b605</t>
-  </si>
-  <si>
-    <t>Shel</t>
-  </si>
-  <si>
-    <t>Downtrodden Merchant</t>
-  </si>
-  <si>
-    <t>Shel has a glint in her eye so sharp you could shuck an oyster off it.</t>
-  </si>
-  <si>
-    <t>f5c5bf85-1e7b-4f40-9ab3-5794f4d37f0a</t>
-  </si>
-  <si>
-    <t>Shlock</t>
-  </si>
-  <si>
-    <t>44f70e1f-d0ca-4163-b558-3851ad56035a</t>
-  </si>
-  <si>
-    <t>Shredmaw</t>
-  </si>
-  <si>
-    <t>Devouring Horror</t>
-  </si>
-  <si>
-    <t>shredmaw_shell</t>
-  </si>
-  <si>
-    <t>Shroog</t>
-  </si>
-  <si>
-    <t>Slobbering Aberration</t>
-  </si>
-  <si>
-    <t>shroog_fang</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Walking Disaster</t>
-  </si>
-  <si>
-    <t>smiths_canteen</t>
-  </si>
-  <si>
-    <t>ed424680-a6ca-4680-b51e-4f37f4afe5b9</t>
-  </si>
-  <si>
-    <t>Sparky</t>
-  </si>
-  <si>
-    <t>system_shock</t>
-  </si>
-  <si>
-    <t>short_circuit</t>
-  </si>
-  <si>
-    <t>sparkys_oppressor_cell</t>
-  </si>
-  <si>
-    <t>65ac77e9-75c3-4779-9ae8-650a3ffb11ec</t>
-  </si>
-  <si>
-    <t>Speerun</t>
-  </si>
-  <si>
-    <t>Speerun's foot falls are so silent that you wouldn't know she passed, if not for the impressions of her feet in the mud.</t>
-  </si>
-  <si>
-    <t>40a89e83-7911-4163-952b-03aa2bc36f2f</t>
-  </si>
-  <si>
-    <t>Spotz</t>
-  </si>
-  <si>
-    <t>If you think Spotz is a little slow on the uptake, you should see Spotz run.</t>
-  </si>
-  <si>
-    <t>dcbf87e5-6664-4cf5-ace5-25f219ecc9a5</t>
-  </si>
-  <si>
-    <t>Sru</t>
-  </si>
-  <si>
-    <t>Sru isn't your typical kra'deshi name—you wonder if it's short for something.</t>
-  </si>
-  <si>
-    <t>e2536f98-4f28-44d8-9330-f42785561953</t>
-  </si>
-  <si>
-    <t>Steven</t>
-  </si>
-  <si>
-    <t>Party Machine</t>
-  </si>
-  <si>
-    <t>Steven has a bit more personality than the average automech, which likely means it's extremely defective—or that the rest of the automechs are.</t>
-  </si>
-  <si>
-    <t>c45303e2-7a50-484c-a1c8-419c76fdf5d3</t>
-  </si>
-  <si>
-    <t>Stollo</t>
-  </si>
-  <si>
-    <t>Stollo has a name that slips off the tongue like a spit. You doubt he'll turn the other cheek in response.</t>
-  </si>
-  <si>
-    <t>cd9aee75-22a9-4e00-b44c-7daf261d56e0</t>
-  </si>
-  <si>
-    <t>Stoque</t>
-  </si>
-  <si>
-    <t>Promoted Thug</t>
-  </si>
-  <si>
-    <t>Not everyone is defined by their headwear, but Stoque keeps things tightly knit.</t>
-  </si>
-  <si>
-    <t>makeshift_dagger_plus</t>
-  </si>
-  <si>
-    <t>044ed127-6f37-43a9-9ba4-4a217f848e45</t>
-  </si>
-  <si>
-    <t>Sweet Moreef</t>
   </si>
   <si>
     <t>65dc4d86-e8ab-4c5e-9444-7ab7d765806d</t>
@@ -5495,10 +5495,10 @@
         <v>322</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>323</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>323</v>
       </c>
       <c r="G59" t="s">
         <v>42</v>
@@ -5510,12 +5510,12 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B60" t="s">
         <v>29</v>
@@ -5524,7 +5524,7 @@
         <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E60" t="s">
         <v>32</v>
@@ -5542,12 +5542,12 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B61" t="s">
         <v>215</v>
@@ -5556,7 +5556,7 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E61" t="s">
         <v>217</v>
@@ -5574,12 +5574,12 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B62" t="s">
         <v>306</v>
@@ -5588,7 +5588,7 @@
         <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E62" t="s">
         <v>308</v>
@@ -5606,12 +5606,12 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B63" t="s">
         <v>279</v>
@@ -5620,7 +5620,7 @@
         <v>53</v>
       </c>
       <c r="D63" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E63" t="s">
         <v>281</v>
@@ -5638,12 +5638,12 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B64" t="s">
         <v>210</v>
@@ -5652,7 +5652,7 @@
         <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E64" t="s">
         <v>101</v>
@@ -5670,12 +5670,12 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B65" t="s">
         <v>68</v>
@@ -5684,7 +5684,7 @@
         <v>21</v>
       </c>
       <c r="D65" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E65" t="s">
         <v>70</v>
@@ -5702,27 +5702,27 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B66" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C66" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E66" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F66" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G66" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H66" t="s">
         <v>26</v>
@@ -5731,12 +5731,12 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B67" t="s">
         <v>119</v>
@@ -5745,7 +5745,7 @@
         <v>120</v>
       </c>
       <c r="D67" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E67" t="s">
         <v>122</v>
@@ -5763,12 +5763,12 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B68" t="s">
         <v>20</v>
@@ -5777,7 +5777,7 @@
         <v>21</v>
       </c>
       <c r="D68" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E68" t="s">
         <v>23</v>
@@ -5795,30 +5795,30 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B69" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C69" t="s">
         <v>61</v>
       </c>
       <c r="D69" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E69" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F69" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G69" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H69" t="s">
         <v>104</v>
@@ -5827,12 +5827,12 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B70" t="s">
         <v>210</v>
@@ -5841,7 +5841,7 @@
         <v>21</v>
       </c>
       <c r="D70" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E70" t="s">
         <v>101</v>
@@ -5859,21 +5859,21 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B71" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C71" t="s">
         <v>247</v>
       </c>
       <c r="G71" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I71" t="b">
         <v>1</v>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B72" t="s">
         <v>52</v>
@@ -5890,16 +5890,16 @@
         <v>128</v>
       </c>
       <c r="D72" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E72" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F72" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G72" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H72" t="s">
         <v>104</v>
@@ -5908,15 +5908,15 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B73" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -5937,27 +5937,27 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B74" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C74" t="s">
         <v>30</v>
       </c>
       <c r="E74" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F74" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G74" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H74" t="s">
         <v>17</v>
@@ -5966,12 +5966,12 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B75" t="s">
         <v>279</v>
@@ -5980,7 +5980,7 @@
         <v>53</v>
       </c>
       <c r="D75" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E75" t="s">
         <v>281</v>
@@ -5998,30 +5998,30 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B76" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C76" t="s">
         <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E76" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F76" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G76" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H76" t="s">
         <v>104</v>
@@ -6030,27 +6030,27 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B77" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C77" t="s">
         <v>30</v>
       </c>
       <c r="D77" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E77" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F77" t="s">
-        <v>397</v>
+        <v>323</v>
       </c>
       <c r="G77" t="s">
         <v>398</v>
@@ -6799,7 +6799,7 @@
         <v>502</v>
       </c>
       <c r="B102" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C102" t="s">
         <v>61</v>
@@ -6808,10 +6808,10 @@
         <v>503</v>
       </c>
       <c r="E102" t="s">
-        <v>504</v>
+        <v>323</v>
       </c>
       <c r="F102" t="s">
-        <v>397</v>
+        <v>323</v>
       </c>
       <c r="G102" t="s">
         <v>398</v>
@@ -6823,12 +6823,12 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B103" t="s">
         <v>113</v>
@@ -6837,7 +6837,7 @@
         <v>61</v>
       </c>
       <c r="D103" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E103" t="s">
         <v>115</v>
@@ -6855,12 +6855,12 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B104" t="s">
         <v>20</v>
@@ -6869,7 +6869,7 @@
         <v>21</v>
       </c>
       <c r="D104" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E104" t="s">
         <v>23</v>
@@ -6887,21 +6887,21 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>511</v>
+      </c>
+      <c r="B105" t="s">
         <v>512</v>
-      </c>
-      <c r="B105" t="s">
-        <v>513</v>
       </c>
       <c r="C105" t="s">
         <v>38</v>
       </c>
       <c r="D105" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E105" t="s">
         <v>150</v>
@@ -6919,12 +6919,12 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B106" t="s">
         <v>60</v>
@@ -6933,7 +6933,7 @@
         <v>61</v>
       </c>
       <c r="D106" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E106" t="s">
         <v>63</v>
@@ -6951,12 +6951,12 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B107" t="s">
         <v>279</v>
@@ -6965,7 +6965,7 @@
         <v>53</v>
       </c>
       <c r="D107" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E107" t="s">
         <v>281</v>
@@ -6983,27 +6983,27 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>521</v>
+      </c>
+      <c r="B108" t="s">
         <v>522</v>
-      </c>
-      <c r="B108" t="s">
-        <v>523</v>
       </c>
       <c r="C108" t="s">
         <v>38</v>
       </c>
       <c r="D108" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E108" t="s">
-        <v>40</v>
+        <v>323</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>323</v>
       </c>
       <c r="G108" t="s">
         <v>42</v>
@@ -7015,12 +7015,12 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B109" t="s">
         <v>488</v>
@@ -7029,7 +7029,7 @@
         <v>128</v>
       </c>
       <c r="D109" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E109" t="s">
         <v>490</v>
@@ -7047,12 +7047,12 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B110" t="s">
         <v>79</v>
@@ -7061,7 +7061,7 @@
         <v>53</v>
       </c>
       <c r="D110" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E110" t="s">
         <v>81</v>
@@ -7079,12 +7079,12 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B111" t="s">
         <v>279</v>
@@ -7093,7 +7093,7 @@
         <v>53</v>
       </c>
       <c r="D111" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E111" t="s">
         <v>281</v>
@@ -7111,30 +7111,30 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>534</v>
+      </c>
+      <c r="B112" t="s">
         <v>535</v>
-      </c>
-      <c r="B112" t="s">
-        <v>536</v>
       </c>
       <c r="C112" t="s">
         <v>38</v>
       </c>
       <c r="D112" t="s">
+        <v>536</v>
+      </c>
+      <c r="E112" t="s">
         <v>537</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>538</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>539</v>
-      </c>
-      <c r="G112" t="s">
-        <v>540</v>
       </c>
       <c r="H112" t="s">
         <v>26</v>
@@ -7143,27 +7143,27 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B113" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C113" t="s">
         <v>12</v>
       </c>
       <c r="D113" t="s">
+        <v>542</v>
+      </c>
+      <c r="E113" t="s">
         <v>543</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>544</v>
-      </c>
-      <c r="F113" t="s">
-        <v>397</v>
       </c>
       <c r="G113" t="s">
         <v>398</v>
@@ -7372,7 +7372,7 @@
         <v>568</v>
       </c>
       <c r="B120" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C120" t="s">
         <v>61</v>
@@ -7381,13 +7381,13 @@
         <v>569</v>
       </c>
       <c r="E120" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F120" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G120" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H120" t="s">
         <v>26</v>
@@ -7404,7 +7404,7 @@
         <v>571</v>
       </c>
       <c r="B121" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C121" t="s">
         <v>38</v>
@@ -7686,7 +7686,7 @@
         <v>606</v>
       </c>
       <c r="B130" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C130" t="s">
         <v>12</v>
@@ -7695,10 +7695,10 @@
         <v>607</v>
       </c>
       <c r="E130" t="s">
+        <v>543</v>
+      </c>
+      <c r="F130" t="s">
         <v>544</v>
-      </c>
-      <c r="F130" t="s">
-        <v>397</v>
       </c>
       <c r="G130" t="s">
         <v>398</v>
@@ -8070,7 +8070,7 @@
         <v>651</v>
       </c>
       <c r="B142" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C142" t="s">
         <v>38</v>
@@ -8166,7 +8166,7 @@
         <v>662</v>
       </c>
       <c r="B145" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C145" t="s">
         <v>38</v>
@@ -8175,13 +8175,13 @@
         <v>663</v>
       </c>
       <c r="E145" t="s">
+        <v>537</v>
+      </c>
+      <c r="F145" t="s">
         <v>538</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>539</v>
-      </c>
-      <c r="G145" t="s">
-        <v>540</v>
       </c>
       <c r="H145" t="s">
         <v>26</v>
@@ -8445,19 +8445,19 @@
         <v>694</v>
       </c>
       <c r="B154" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C154" t="s">
         <v>38</v>
       </c>
       <c r="E154" t="s">
+        <v>537</v>
+      </c>
+      <c r="F154" t="s">
         <v>538</v>
       </c>
-      <c r="F154" t="s">
+      <c r="G154" t="s">
         <v>539</v>
-      </c>
-      <c r="G154" t="s">
-        <v>540</v>
       </c>
       <c r="I154" t="b">
         <v>0</v>
@@ -8660,7 +8660,7 @@
         <v>717</v>
       </c>
       <c r="B161" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C161" t="s">
         <v>61</v>
@@ -8669,13 +8669,13 @@
         <v>718</v>
       </c>
       <c r="E161" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F161" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G161" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H161" t="s">
         <v>17</v>
@@ -8706,7 +8706,7 @@
         <v>722</v>
       </c>
       <c r="B163" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C163" t="s">
         <v>38</v>
@@ -8904,7 +8904,7 @@
         <v>745</v>
       </c>
       <c r="E169" t="s">
-        <v>14</v>
+        <v>323</v>
       </c>
       <c r="F169" t="s">
         <v>15</v>
@@ -8936,10 +8936,10 @@
         <v>750</v>
       </c>
       <c r="F170" t="s">
+        <v>323</v>
+      </c>
+      <c r="G170" t="s">
         <v>751</v>
-      </c>
-      <c r="G170" t="s">
-        <v>752</v>
       </c>
       <c r="H170" t="s">
         <v>17</v>
@@ -8948,12 +8948,12 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B171" t="s">
         <v>155</v>
@@ -8962,7 +8962,7 @@
         <v>38</v>
       </c>
       <c r="D171" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E171" t="s">
         <v>157</v>
@@ -8980,12 +8980,12 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B172" t="s">
         <v>176</v>
@@ -8994,7 +8994,7 @@
         <v>12</v>
       </c>
       <c r="D172" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E172" t="s">
         <v>178</v>
@@ -9012,12 +9012,12 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B173" t="s">
         <v>222</v>
@@ -9041,21 +9041,21 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>761</v>
+      </c>
+      <c r="B174" t="s">
         <v>762</v>
-      </c>
-      <c r="B174" t="s">
-        <v>763</v>
       </c>
       <c r="C174" t="s">
         <v>21</v>
       </c>
       <c r="D174" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E174" t="s">
         <v>70</v>
@@ -9073,12 +9073,12 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B175" t="s">
         <v>210</v>
@@ -9087,7 +9087,7 @@
         <v>21</v>
       </c>
       <c r="D175" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E175" t="s">
         <v>101</v>
@@ -9105,21 +9105,21 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B176" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C176" t="s">
         <v>38</v>
       </c>
       <c r="D176" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E176" t="s">
         <v>150</v>
@@ -9137,12 +9137,12 @@
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B177" t="s">
         <v>68</v>
@@ -9151,7 +9151,7 @@
         <v>21</v>
       </c>
       <c r="D177" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E177" t="s">
         <v>70</v>
@@ -9169,12 +9169,12 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B178" t="s">
         <v>60</v>
@@ -9183,13 +9183,13 @@
         <v>61</v>
       </c>
       <c r="D178" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E178" t="s">
-        <v>63</v>
+        <v>323</v>
       </c>
       <c r="F178" t="s">
-        <v>64</v>
+        <v>323</v>
       </c>
       <c r="G178" t="s">
         <v>65</v>
@@ -9201,12 +9201,12 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B179" t="s">
         <v>37</v>
@@ -9230,12 +9230,12 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B180" t="s">
         <v>37</v>
@@ -9244,7 +9244,7 @@
         <v>38</v>
       </c>
       <c r="D180" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E180" t="s">
         <v>40</v>
@@ -9262,24 +9262,24 @@
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B181" t="s">
         <v>79</v>
       </c>
       <c r="D181" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E181" t="s">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="F181" t="s">
-        <v>82</v>
+        <v>323</v>
       </c>
       <c r="G181" t="s">
         <v>83</v>
@@ -9291,12 +9291,12 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B182" t="s">
         <v>215</v>
@@ -9305,7 +9305,7 @@
         <v>12</v>
       </c>
       <c r="D182" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E182" t="s">
         <v>217</v>
@@ -9323,24 +9323,24 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>788</v>
+      </c>
+      <c r="B183" t="s">
         <v>789</v>
-      </c>
-      <c r="B183" t="s">
-        <v>790</v>
       </c>
       <c r="C183" t="s">
         <v>30</v>
       </c>
       <c r="E183" t="s">
-        <v>164</v>
+        <v>323</v>
       </c>
       <c r="F183" t="s">
-        <v>165</v>
+        <v>323</v>
       </c>
       <c r="G183" t="s">
         <v>166</v>
@@ -9352,12 +9352,12 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B184" t="s">
         <v>610</v>
@@ -9366,7 +9366,7 @@
         <v>120</v>
       </c>
       <c r="D184" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E184" t="s">
         <v>612</v>
@@ -9384,12 +9384,12 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B185" t="s">
         <v>162</v>
@@ -9398,7 +9398,7 @@
         <v>30</v>
       </c>
       <c r="D185" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E185" t="s">
         <v>164</v>
@@ -9416,21 +9416,21 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>797</v>
+      </c>
+      <c r="B186" t="s">
         <v>798</v>
-      </c>
-      <c r="B186" t="s">
-        <v>799</v>
       </c>
       <c r="C186" t="s">
         <v>38</v>
       </c>
       <c r="D186" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E186" t="s">
         <v>40</v>
@@ -9439,7 +9439,7 @@
         <v>41</v>
       </c>
       <c r="G186" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H186" t="s">
         <v>26</v>
@@ -9448,12 +9448,12 @@
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B187" t="s">
         <v>92</v>
@@ -9462,7 +9462,7 @@
         <v>61</v>
       </c>
       <c r="D187" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E187" t="s">
         <v>94</v>
@@ -9480,12 +9480,12 @@
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B188" t="s">
         <v>99</v>
@@ -9494,7 +9494,7 @@
         <v>21</v>
       </c>
       <c r="D188" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E188" t="s">
         <v>101</v>
@@ -9512,30 +9512,30 @@
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>808</v>
+      </c>
+      <c r="B189" t="s">
         <v>809</v>
-      </c>
-      <c r="B189" t="s">
-        <v>810</v>
       </c>
       <c r="C189" t="s">
         <v>128</v>
       </c>
       <c r="D189" t="s">
+        <v>810</v>
+      </c>
+      <c r="E189" t="s">
         <v>811</v>
       </c>
-      <c r="E189" t="s">
+      <c r="F189" t="s">
         <v>812</v>
       </c>
-      <c r="F189" t="s">
+      <c r="G189" t="s">
         <v>813</v>
-      </c>
-      <c r="G189" t="s">
-        <v>814</v>
       </c>
       <c r="H189" t="s">
         <v>26</v>
@@ -9544,12 +9544,12 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B190" t="s">
         <v>467</v>
@@ -9558,7 +9558,7 @@
         <v>12</v>
       </c>
       <c r="D190" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E190" t="s">
         <v>469</v>
@@ -9576,12 +9576,12 @@
         <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B191" t="s">
         <v>29</v>
@@ -9590,7 +9590,7 @@
         <v>30</v>
       </c>
       <c r="D191" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E191" t="s">
         <v>32</v>
@@ -9608,12 +9608,12 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B192" t="s">
         <v>155</v>
@@ -9622,7 +9622,7 @@
         <v>38</v>
       </c>
       <c r="D192" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E192" t="s">
         <v>157</v>
@@ -9640,12 +9640,12 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B193" t="s">
         <v>596</v>
@@ -9654,7 +9654,7 @@
         <v>53</v>
       </c>
       <c r="D193" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E193" t="s">
         <v>577</v>
@@ -9672,12 +9672,12 @@
         <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B194" t="s">
         <v>162</v>
@@ -9686,7 +9686,7 @@
         <v>30</v>
       </c>
       <c r="D194" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E194" t="s">
         <v>164</v>
@@ -9704,12 +9704,12 @@
         <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B195" t="s">
         <v>29</v>
@@ -9718,13 +9718,13 @@
         <v>30</v>
       </c>
       <c r="D195" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E195" t="s">
-        <v>32</v>
+        <v>323</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>323</v>
       </c>
       <c r="G195" t="s">
         <v>34</v>
@@ -9736,12 +9736,12 @@
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B196" t="s">
         <v>596</v>
@@ -9750,7 +9750,7 @@
         <v>53</v>
       </c>
       <c r="D196" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E196" t="s">
         <v>577</v>
@@ -9768,12 +9768,12 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B197" t="s">
         <v>210</v>
@@ -9782,7 +9782,7 @@
         <v>21</v>
       </c>
       <c r="D197" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E197" t="s">
         <v>101</v>
@@ -9800,12 +9800,12 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B198" t="s">
         <v>222</v>
@@ -9829,12 +9829,12 @@
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B199" t="s">
         <v>162</v>
@@ -9843,7 +9843,7 @@
         <v>30</v>
       </c>
       <c r="D199" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E199" t="s">
         <v>164</v>
@@ -9861,27 +9861,27 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>844</v>
+      </c>
+      <c r="B200" t="s">
         <v>845</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
         <v>846</v>
       </c>
-      <c r="C200" t="s">
+      <c r="E200" t="s">
         <v>847</v>
       </c>
-      <c r="E200" t="s">
+      <c r="F200" t="s">
         <v>848</v>
       </c>
-      <c r="F200" t="s">
+      <c r="G200" t="s">
         <v>849</v>
-      </c>
-      <c r="G200" t="s">
-        <v>850</v>
       </c>
       <c r="I200" t="b">
         <v>0</v>
@@ -9889,7 +9889,7 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B201" t="s">
         <v>210</v>
@@ -9898,7 +9898,7 @@
         <v>21</v>
       </c>
       <c r="D201" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E201" t="s">
         <v>101</v>
@@ -9916,12 +9916,12 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B202" t="s">
         <v>20</v>
@@ -9930,7 +9930,7 @@
         <v>21</v>
       </c>
       <c r="D202" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E202" t="s">
         <v>23</v>
@@ -9948,12 +9948,12 @@
         <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B203" t="s">
         <v>197</v>
@@ -9962,7 +9962,7 @@
         <v>21</v>
       </c>
       <c r="D203" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E203" t="s">
         <v>199</v>
@@ -9980,27 +9980,27 @@
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B204" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C204" t="s">
         <v>12</v>
       </c>
       <c r="D204" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E204" t="s">
+        <v>543</v>
+      </c>
+      <c r="F204" t="s">
         <v>544</v>
-      </c>
-      <c r="F204" t="s">
-        <v>397</v>
       </c>
       <c r="G204" t="s">
         <v>398</v>
@@ -10012,12 +10012,12 @@
         <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B205" t="s">
         <v>404</v>
@@ -10026,7 +10026,7 @@
         <v>128</v>
       </c>
       <c r="D205" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E205" t="s">
         <v>171</v>
@@ -10044,30 +10044,30 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>865</v>
+      </c>
+      <c r="B206" t="s">
         <v>866</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
+        <v>846</v>
+      </c>
+      <c r="D206" t="s">
         <v>867</v>
       </c>
-      <c r="C206" t="s">
-        <v>847</v>
-      </c>
-      <c r="D206" t="s">
+      <c r="E206" t="s">
         <v>868</v>
       </c>
-      <c r="E206" t="s">
+      <c r="F206" t="s">
         <v>869</v>
       </c>
-      <c r="F206" t="s">
+      <c r="G206" t="s">
         <v>870</v>
-      </c>
-      <c r="G206" t="s">
-        <v>871</v>
       </c>
       <c r="H206" t="s">
         <v>26</v>
@@ -10076,12 +10076,12 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B207" t="s">
         <v>197</v>
@@ -10090,7 +10090,7 @@
         <v>21</v>
       </c>
       <c r="D207" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E207" t="s">
         <v>199</v>
@@ -10108,30 +10108,30 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>875</v>
+      </c>
+      <c r="B208" t="s">
         <v>876</v>
-      </c>
-      <c r="B208" t="s">
-        <v>877</v>
       </c>
       <c r="C208" t="s">
         <v>128</v>
       </c>
       <c r="D208" t="s">
+        <v>877</v>
+      </c>
+      <c r="E208" t="s">
         <v>878</v>
       </c>
-      <c r="E208" t="s">
+      <c r="F208" t="s">
         <v>879</v>
       </c>
-      <c r="F208" t="s">
+      <c r="G208" t="s">
         <v>880</v>
-      </c>
-      <c r="G208" t="s">
-        <v>881</v>
       </c>
       <c r="H208" t="s">
         <v>104</v>
@@ -10140,12 +10140,12 @@
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B209" t="s">
         <v>575</v>
@@ -10154,7 +10154,7 @@
         <v>53</v>
       </c>
       <c r="D209" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E209" t="s">
         <v>577</v>
@@ -10172,12 +10172,12 @@
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B210" t="s">
         <v>262</v>
@@ -10186,7 +10186,7 @@
         <v>12</v>
       </c>
       <c r="D210" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E210" t="s">
         <v>264</v>
@@ -10204,21 +10204,21 @@
         <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>888</v>
+      </c>
+      <c r="B211" t="s">
         <v>889</v>
-      </c>
-      <c r="B211" t="s">
-        <v>890</v>
       </c>
       <c r="C211" t="s">
         <v>12</v>
       </c>
       <c r="D211" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E211" t="s">
         <v>14</v>
@@ -10236,12 +10236,12 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B212" t="s">
         <v>418</v>
@@ -10265,21 +10265,21 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>894</v>
+      </c>
+      <c r="B213" t="s">
         <v>895</v>
-      </c>
-      <c r="B213" t="s">
-        <v>896</v>
       </c>
       <c r="C213" t="s">
         <v>247</v>
       </c>
       <c r="G213" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I213" t="b">
         <v>1</v>
@@ -10287,16 +10287,16 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>897</v>
+      </c>
+      <c r="B214" t="s">
         <v>898</v>
-      </c>
-      <c r="B214" t="s">
-        <v>899</v>
       </c>
       <c r="C214" t="s">
         <v>247</v>
       </c>
       <c r="G214" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I214" t="b">
         <v>1</v>
@@ -10304,16 +10304,16 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>900</v>
+      </c>
+      <c r="B215" t="s">
         <v>901</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" t="s">
+        <v>846</v>
+      </c>
+      <c r="G215" t="s">
         <v>902</v>
-      </c>
-      <c r="C215" t="s">
-        <v>847</v>
-      </c>
-      <c r="G215" t="s">
-        <v>903</v>
       </c>
       <c r="H215" t="s">
         <v>76</v>
@@ -10322,12 +10322,12 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B216" t="s">
         <v>8</v>
@@ -10336,13 +10336,13 @@
         <v>53</v>
       </c>
       <c r="E216" t="s">
+        <v>905</v>
+      </c>
+      <c r="F216" t="s">
         <v>906</v>
       </c>
-      <c r="F216" t="s">
+      <c r="G216" t="s">
         <v>907</v>
-      </c>
-      <c r="G216" t="s">
-        <v>908</v>
       </c>
       <c r="H216" t="s">
         <v>104</v>
@@ -10351,12 +10351,12 @@
         <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B217" t="s">
         <v>610</v>
@@ -10365,7 +10365,7 @@
         <v>120</v>
       </c>
       <c r="D217" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E217" t="s">
         <v>612</v>
@@ -10383,12 +10383,12 @@
         <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B218" t="s">
         <v>197</v>
@@ -10397,7 +10397,7 @@
         <v>21</v>
       </c>
       <c r="D218" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E218" t="s">
         <v>199</v>
@@ -10415,12 +10415,12 @@
         <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B219" t="s">
         <v>279</v>
@@ -10429,7 +10429,7 @@
         <v>53</v>
       </c>
       <c r="D219" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E219" t="s">
         <v>281</v>
@@ -10447,21 +10447,21 @@
         <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>918</v>
+      </c>
+      <c r="B220" t="s">
         <v>919</v>
-      </c>
-      <c r="B220" t="s">
-        <v>920</v>
       </c>
       <c r="C220" t="s">
         <v>12</v>
       </c>
       <c r="D220" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H220" t="s">
         <v>145</v>
@@ -10470,30 +10470,30 @@
         <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B221" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C221" t="s">
         <v>38</v>
       </c>
       <c r="D221" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E221" t="s">
+        <v>537</v>
+      </c>
+      <c r="F221" t="s">
         <v>538</v>
       </c>
-      <c r="F221" t="s">
+      <c r="G221" t="s">
         <v>539</v>
-      </c>
-      <c r="G221" t="s">
-        <v>540</v>
       </c>
       <c r="H221" t="s">
         <v>26</v>
@@ -10502,21 +10502,21 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>925</v>
+      </c>
+      <c r="B222" t="s">
         <v>926</v>
-      </c>
-      <c r="B222" t="s">
-        <v>927</v>
       </c>
       <c r="C222" t="s">
         <v>61</v>
       </c>
       <c r="D222" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E222" t="s">
         <v>94</v>
@@ -10525,7 +10525,7 @@
         <v>95</v>
       </c>
       <c r="G222" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H222" t="s">
         <v>104</v>
@@ -10534,24 +10534,24 @@
         <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B223" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C223" t="s">
         <v>30</v>
       </c>
       <c r="E223" t="s">
-        <v>504</v>
+        <v>931</v>
       </c>
       <c r="F223" t="s">
-        <v>397</v>
+        <v>544</v>
       </c>
       <c r="G223" t="s">
         <v>398</v>
@@ -10603,7 +10603,7 @@
         <v>936</v>
       </c>
       <c r="B225" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C225" t="s">
         <v>61</v>
@@ -10612,13 +10612,13 @@
         <v>937</v>
       </c>
       <c r="E225" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F225" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G225" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H225" t="s">
         <v>104</v>
@@ -10635,7 +10635,7 @@
         <v>939</v>
       </c>
       <c r="B226" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C226" t="s">
         <v>61</v>
@@ -10650,7 +10650,7 @@
         <v>95</v>
       </c>
       <c r="G226" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H226" t="s">
         <v>17</v>
@@ -10667,10 +10667,10 @@
         <v>942</v>
       </c>
       <c r="B227" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C227" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E227" t="s">
         <v>943</v>
@@ -10696,7 +10696,7 @@
         <v>947</v>
       </c>
       <c r="B228" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C228" t="s">
         <v>61</v>
@@ -10711,7 +10711,7 @@
         <v>95</v>
       </c>
       <c r="G228" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H228" t="s">
         <v>17</v>
@@ -10760,7 +10760,7 @@
         <v>953</v>
       </c>
       <c r="B230" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C230" t="s">
         <v>38</v>
@@ -11106,7 +11106,7 @@
         <v>995</v>
       </c>
       <c r="B241" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C241" t="s">
         <v>38</v>
@@ -11115,13 +11115,13 @@
         <v>996</v>
       </c>
       <c r="E241" t="s">
+        <v>537</v>
+      </c>
+      <c r="F241" t="s">
         <v>538</v>
       </c>
-      <c r="F241" t="s">
+      <c r="G241" t="s">
         <v>539</v>
-      </c>
-      <c r="G241" t="s">
-        <v>540</v>
       </c>
       <c r="H241" t="s">
         <v>26</v>
@@ -11379,7 +11379,7 @@
         <v>38</v>
       </c>
       <c r="E250" t="s">
-        <v>40</v>
+        <v>323</v>
       </c>
       <c r="F250" t="s">
         <v>41</v>
@@ -11687,7 +11687,7 @@
         <v>1055</v>
       </c>
       <c r="B260" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C260" t="s">
         <v>12</v>
@@ -11696,10 +11696,10 @@
         <v>1056</v>
       </c>
       <c r="E260" t="s">
+        <v>543</v>
+      </c>
+      <c r="F260" t="s">
         <v>544</v>
-      </c>
-      <c r="F260" t="s">
-        <v>397</v>
       </c>
       <c r="G260" t="s">
         <v>398</v>
@@ -11783,7 +11783,7 @@
         <v>1064</v>
       </c>
       <c r="B263" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C263" t="s">
         <v>38</v>
@@ -11798,7 +11798,7 @@
         <v>41</v>
       </c>
       <c r="G263" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H263" t="s">
         <v>26</v>
